--- a/analisis/resultados/argentina/renta_metodo_directo.xlsx
+++ b/analisis/resultados/argentina/renta_metodo_directo.xlsx
@@ -2593,17 +2593,11 @@
       <c r="Q54">
         <v>1.39e-011</v>
       </c>
-      <c r="S54">
-        <v>9.52813305135428e-010</v>
-      </c>
-      <c r="T54">
-        <v>8.502385573662216e-010</v>
-      </c>
       <c r="U54">
-        <v>3.913069340118669e-010</v>
+        <v>3.917944184840152e-010</v>
       </c>
       <c r="V54">
-        <v>1.577905740648256e-010</v>
+        <v>1.579871472610104e-010</v>
       </c>
       <c r="AE54" t="inlineStr">
         <is>
@@ -2671,26 +2665,14 @@
       <c r="Q55">
         <v>1.41e-011</v>
       </c>
-      <c r="S55">
-        <v>6.955551181566665e-010</v>
-      </c>
-      <c r="T55">
-        <v>6.206754009865124e-010</v>
-      </c>
       <c r="U55">
-        <v>2.856546390097495e-010</v>
+        <v>2.860105033934616e-010</v>
       </c>
       <c r="V55">
-        <v>1.151873518097739e-010</v>
+        <v>1.15330850532936e-010</v>
       </c>
       <c r="X55">
         <v>3.556430118509356e-009</v>
-      </c>
-      <c r="Y55">
-        <v>2.935754717522844e-009</v>
-      </c>
-      <c r="Z55">
-        <v>2.82056736571307e-009</v>
       </c>
       <c r="AE55" t="inlineStr">
         <is>
@@ -2758,26 +2740,14 @@
       <c r="Q56">
         <v>1.68e-011</v>
       </c>
-      <c r="S56">
-        <v>1.177206032229962e-009</v>
-      </c>
-      <c r="T56">
-        <v>1.05047437223156e-009</v>
-      </c>
       <c r="U56">
-        <v>4.834618499651483e-010</v>
+        <v>4.840641396877398e-010</v>
       </c>
       <c r="V56">
-        <v>1.949511143652003e-010</v>
+        <v>1.951939816205967e-010</v>
       </c>
       <c r="X56">
         <v>6.174960698692978e-009</v>
-      </c>
-      <c r="Y56">
-        <v>5.124486326461417e-009</v>
-      </c>
-      <c r="Z56">
-        <v>4.929535212096217e-009</v>
       </c>
       <c r="AE56" t="inlineStr">
         <is>
@@ -2845,26 +2815,14 @@
       <c r="Q57">
         <v>2.07e-011</v>
       </c>
-      <c r="S57">
-        <v>2.153826776266427e-009</v>
-      </c>
-      <c r="T57">
-        <v>1.921957387873819e-009</v>
-      </c>
       <c r="U57">
-        <v>8.845461620560457e-010</v>
+        <v>8.856481167658175e-010</v>
       </c>
       <c r="V57">
-        <v>3.566843175169214e-010</v>
+        <v>3.571286696383256e-010</v>
       </c>
       <c r="X57">
         <v>1.459017727465349e-008</v>
-      </c>
-      <c r="Y57">
-        <v>1.266821988677967e-008</v>
-      </c>
-      <c r="Z57">
-        <v>1.231153556926275e-008</v>
       </c>
       <c r="AE57" t="inlineStr">
         <is>
@@ -2932,26 +2890,14 @@
       <c r="Q58">
         <v>3.31e-011</v>
       </c>
-      <c r="S58">
-        <v>2.573300660365296e-009</v>
-      </c>
-      <c r="T58">
-        <v>2.296272973253197e-009</v>
-      </c>
       <c r="U58">
-        <v>1.056818147134431e-009</v>
+        <v>1.058134715771053e-009</v>
       </c>
       <c r="V58">
-        <v>4.261512578088129e-010</v>
+        <v>4.266821508314293e-010</v>
       </c>
       <c r="X58">
         <v>6.982360257073593e-009</v>
-      </c>
-      <c r="Y58">
-        <v>4.686087283820396e-009</v>
-      </c>
-      <c r="Z58">
-        <v>4.259936026011584e-009</v>
       </c>
       <c r="AE58" t="inlineStr">
         <is>
@@ -3016,17 +2962,11 @@
       <c r="Q59">
         <v>3.5e-011</v>
       </c>
-      <c r="S59">
-        <v>3.517618437553595e-009</v>
-      </c>
-      <c r="T59">
-        <v>3.138930585446949e-009</v>
-      </c>
       <c r="U59">
-        <v>1.444636088102345e-009</v>
+        <v>1.44643579467446e-009</v>
       </c>
       <c r="V59">
-        <v>5.825349306218025e-010</v>
+        <v>5.832606441435403e-010</v>
       </c>
       <c r="AE59" t="inlineStr">
         <is>
@@ -3091,17 +3031,11 @@
       <c r="Q60">
         <v>3.5e-011</v>
       </c>
-      <c r="S60">
-        <v>3.571093628616325e-009</v>
-      </c>
-      <c r="T60">
-        <v>3.18664892550266e-009</v>
-      </c>
       <c r="U60">
-        <v>1.466597591943312e-009</v>
+        <v>1.468424657836657e-009</v>
       </c>
       <c r="V60">
-        <v>5.913906855220922e-010</v>
+        <v>5.921274314141454e-010</v>
       </c>
       <c r="AE60" t="inlineStr">
         <is>
@@ -3166,17 +3100,11 @@
       <c r="Q61">
         <v>3.77e-011</v>
       </c>
-      <c r="S61">
-        <v>4.334743518671884e-009</v>
-      </c>
-      <c r="T61">
-        <v>3.868088382061705e-009</v>
-      </c>
       <c r="U61">
-        <v>1.780217789652103e-009</v>
+        <v>1.78243555901438e-009</v>
       </c>
       <c r="V61">
-        <v>7.178548667913503e-010</v>
+        <v>7.187491599162616e-010</v>
       </c>
       <c r="AE61" t="inlineStr">
         <is>
@@ -3241,17 +3169,11 @@
       <c r="Q62">
         <v>4.59e-011</v>
       </c>
-      <c r="S62">
-        <v>4.787960346336742e-009</v>
-      </c>
-      <c r="T62">
-        <v>4.272514327470909e-009</v>
-      </c>
       <c r="U62">
-        <v>1.966347523903571e-009</v>
+        <v>1.968797170974536e-009</v>
       </c>
       <c r="V62">
-        <v>7.929098046555025e-010</v>
+        <v>7.938976001275142e-010</v>
       </c>
       <c r="AE62" t="inlineStr">
         <is>
@@ -3319,26 +3241,14 @@
       <c r="Q63">
         <v>8e-011</v>
       </c>
-      <c r="S63">
-        <v>6.502252060637316e-009</v>
-      </c>
-      <c r="T63">
-        <v>5.802254630440983e-009</v>
-      </c>
       <c r="U63">
-        <v>2.67038285916745e-009</v>
+        <v>2.673709583192473e-009</v>
       </c>
       <c r="V63">
-        <v>1.076804952063855e-009</v>
+        <v>1.0781464199706e-009</v>
       </c>
       <c r="X63">
         <v>4.255306628371884e-008</v>
-      </c>
-      <c r="Y63">
-        <v>3.675081165327786e-008</v>
-      </c>
-      <c r="Z63">
-        <v>3.5674006701214e-008</v>
       </c>
       <c r="AE63" t="inlineStr">
         <is>
@@ -3469,26 +3379,14 @@
       <c r="Q65">
         <v>8.68e-011</v>
       </c>
-      <c r="S65">
-        <v>2.831233585011333e-008</v>
-      </c>
-      <c r="T65">
-        <v>2.526438228677634e-008</v>
-      </c>
       <c r="U65">
-        <v>1.162747547343225e-008</v>
+        <v>1.164196081281909e-008</v>
       </c>
       <c r="V65">
-        <v>4.688662199433235e-009</v>
+        <v>4.69450326642875e-009</v>
       </c>
       <c r="X65">
         <v>3.029497926353049e-007</v>
-      </c>
-      <c r="Y65">
-        <v>2.776854103485286e-007</v>
-      </c>
-      <c r="Z65">
-        <v>2.729967481490953e-007</v>
       </c>
       <c r="AE65" t="inlineStr">
         <is>
@@ -3556,26 +3454,14 @@
       <c r="Q66">
         <v>2.57e-010</v>
       </c>
-      <c r="S66">
-        <v>4.977442005349177e-008</v>
-      </c>
-      <c r="T66">
-        <v>4.441597411783205e-008</v>
-      </c>
       <c r="U66">
-        <v>2.044164958483895e-008</v>
+        <v>2.046711549380085e-008</v>
       </c>
       <c r="V66">
-        <v>8.242889002130295e-009</v>
+        <v>8.253157873047003e-009</v>
       </c>
       <c r="X66">
         <v>8.117618613037612e-007</v>
-      </c>
-      <c r="Y66">
-        <v>7.673458871859292e-007</v>
-      </c>
-      <c r="Z66">
-        <v>7.591029981837989e-007</v>
       </c>
       <c r="AE66" t="inlineStr">
         <is>
@@ -3643,26 +3529,14 @@
       <c r="Q67">
         <v>1.83e-009</v>
       </c>
-      <c r="S67">
-        <v>3.741911431567702e-007</v>
-      </c>
-      <c r="T67">
-        <v>3.339077403958053e-007</v>
-      </c>
       <c r="U67">
-        <v>1.536750045091566e-007</v>
+        <v>1.538664505888043e-007</v>
       </c>
       <c r="V67">
-        <v>6.196789546330688e-008</v>
+        <v>6.204509416382661e-008</v>
       </c>
       <c r="X67">
         <v>4.245278300399867e-006</v>
-      </c>
-      <c r="Y67">
-        <v>3.911370560004062e-006</v>
-      </c>
-      <c r="Z67">
-        <v>3.849402664540755e-006</v>
       </c>
       <c r="AE67" t="inlineStr">
         <is>
@@ -3730,26 +3604,14 @@
       <c r="Q68">
         <v>4.05e-009</v>
       </c>
-      <c r="S68">
-        <v>1.006008059259403e-006</v>
-      </c>
-      <c r="T68">
-        <v>8.977066508133329e-007</v>
-      </c>
       <c r="U68">
-        <v>4.131532663726531e-007</v>
+        <v>4.136679666870817e-007</v>
       </c>
       <c r="V68">
-        <v>1.665998872274564e-007</v>
+        <v>1.668074349375171e-007</v>
       </c>
       <c r="X68">
         <v>1.219815144953583e-005</v>
-      </c>
-      <c r="Y68">
-        <v>1.13004447987225e-005</v>
-      </c>
-      <c r="Z68">
-        <v>1.113384491149504e-005</v>
       </c>
       <c r="AE68" t="inlineStr">
         <is>
@@ -3817,26 +3679,14 @@
       <c r="Q69">
         <v>7.9e-009</v>
       </c>
-      <c r="S69">
-        <v>3.596776331649545e-006</v>
-      </c>
-      <c r="T69">
-        <v>3.209566767076175e-006</v>
-      </c>
       <c r="U69">
-        <v>1.477145114450502e-006</v>
+        <v>1.478985320293577e-006</v>
       </c>
       <c r="V69">
-        <v>5.956438675812704e-007</v>
+        <v>5.963859120255108e-007</v>
       </c>
       <c r="X69">
         <v>3.51576826122033e-005</v>
-      </c>
-      <c r="Y69">
-        <v>3.194811584512712e-005</v>
-      </c>
-      <c r="Z69">
-        <v>3.135247197754585e-005</v>
       </c>
       <c r="AE69" t="inlineStr">
         <is>
@@ -3904,26 +3754,14 @@
       <c r="Q70">
         <v>1.31e-008</v>
       </c>
-      <c r="S70">
-        <v>7.629421579852077e-006</v>
-      </c>
-      <c r="T70">
-        <v>6.808079151109403e-006</v>
-      </c>
       <c r="U70">
-        <v>3.133295421679228e-006</v>
+        <v>3.137198835424193e-006</v>
       </c>
       <c r="V70">
-        <v>1.263469773542172e-006</v>
+        <v>1.26504378576147e-006</v>
       </c>
       <c r="X70">
         <v>0.0001485813375740899</v>
-      </c>
-      <c r="Y70">
-        <v>0.0001417732584229805</v>
-      </c>
-      <c r="Z70">
-        <v>0.0001405097886494383</v>
       </c>
       <c r="AE70" t="inlineStr">
         <is>
@@ -4243,26 +4081,14 @@
       <c r="Q75">
         <v>6.77e-006</v>
       </c>
-      <c r="S75">
-        <v>0.004468285717492775</v>
-      </c>
-      <c r="T75">
-        <v>0.003987254147129237</v>
-      </c>
       <c r="U75">
-        <v>0.001835061679950611</v>
+        <v>0.001837347773031658</v>
       </c>
       <c r="V75">
-        <v>0.0007399701123491696</v>
+        <v>0.0007408919563245006</v>
       </c>
       <c r="X75">
         <v>0.04436100329470911</v>
-      </c>
-      <c r="Y75">
-        <v>0.04037374914757988</v>
-      </c>
-      <c r="Z75">
-        <v>0.03963377903523071</v>
       </c>
       <c r="AE75" t="inlineStr">
         <is>
@@ -4330,26 +4156,14 @@
       <c r="Q76">
         <v>6e-005</v>
       </c>
-      <c r="S76">
-        <v>0.04136790127959533</v>
-      </c>
-      <c r="T76">
-        <v>0.03691445587048364</v>
-      </c>
       <c r="U76">
-        <v>0.01698921134809638</v>
+        <v>0.01701037625984822</v>
       </c>
       <c r="V76">
-        <v>0.006850728107576753</v>
+        <v>0.00685926264475225</v>
       </c>
       <c r="X76">
         <v>0.3384821122498967</v>
-      </c>
-      <c r="Y76">
-        <v>0.301567656379413</v>
-      </c>
-      <c r="Z76">
-        <v>0.2947169282718363</v>
       </c>
       <c r="AE76" t="inlineStr">
         <is>
@@ -4417,26 +4231,14 @@
       <c r="Q77">
         <v>9.42e-005</v>
       </c>
-      <c r="S77">
-        <v>0.06724875602603651</v>
-      </c>
-      <c r="T77">
-        <v>0.06000911721118692</v>
-      </c>
       <c r="U77">
-        <v>0.02761811195837587</v>
+        <v>0.02765251819951178</v>
       </c>
       <c r="V77">
-        <v>0.01113672506597237</v>
+        <v>0.01115059903565798</v>
       </c>
       <c r="X77">
         <v>0.4636543608015857</v>
-      </c>
-      <c r="Y77">
-        <v>0.4036452435903988</v>
-      </c>
-      <c r="Z77">
-        <v>0.3925085185244264</v>
       </c>
       <c r="AE77" t="inlineStr">
         <is>
@@ -4504,26 +4306,14 @@
       <c r="Q78">
         <v>0.000214</v>
       </c>
-      <c r="S78">
-        <v>0.1244220595129668</v>
-      </c>
-      <c r="T78">
-        <v>0.1110274508286834</v>
-      </c>
       <c r="U78">
-        <v>0.05109837821223637</v>
+        <v>0.05116203582666973</v>
       </c>
       <c r="V78">
-        <v>0.02060490558965111</v>
+        <v>0.02063057488056313</v>
       </c>
       <c r="X78">
         <v>0.9038279987678225</v>
-      </c>
-      <c r="Y78">
-        <v>0.792800547939139</v>
-      </c>
-      <c r="Z78">
-        <v>0.7721956423494879</v>
       </c>
       <c r="AE78" t="inlineStr">
         <is>
@@ -4591,26 +4381,14 @@
       <c r="Q79">
         <v>0.000871</v>
       </c>
-      <c r="S79">
-        <v>0.7439686217140354</v>
-      </c>
-      <c r="T79">
-        <v>0.6638769675471423</v>
-      </c>
       <c r="U79">
-        <v>0.3055373794581671</v>
+        <v>0.3059180134699893</v>
       </c>
       <c r="V79">
-        <v>0.1232048663403051</v>
+        <v>0.1233583531661537</v>
       </c>
       <c r="X79">
         <v>3.396079155070159</v>
-      </c>
-      <c r="Y79">
-        <v>2.732202187523017</v>
-      </c>
-      <c r="Z79">
-        <v>2.608997321182712</v>
       </c>
       <c r="AE79" t="inlineStr">
         <is>
@@ -4678,26 +4456,14 @@
       <c r="Q80">
         <v>0.0394</v>
       </c>
-      <c r="S80">
-        <v>4.90044128474249</v>
-      </c>
-      <c r="T80">
-        <v>4.372886173965758</v>
-      </c>
       <c r="U80">
-        <v>2.012541852745437</v>
+        <v>2.015049048037643</v>
       </c>
       <c r="V80">
-        <v>0.8115372018032266</v>
+        <v>0.8125482030149706</v>
       </c>
       <c r="X80">
         <v>126.4732029371874</v>
-      </c>
-      <c r="Y80">
-        <v>122.1003167632216</v>
-      </c>
-      <c r="Z80">
-        <v>121.2887795614184</v>
       </c>
       <c r="AE80" t="inlineStr">
         <is>
@@ -4765,26 +4531,14 @@
       <c r="Q81">
         <v>0.449</v>
       </c>
-      <c r="S81">
-        <v>346.6216717363599</v>
-      </c>
-      <c r="T81">
-        <v>309.3062497559289</v>
-      </c>
       <c r="U81">
-        <v>142.3526129391573</v>
+        <v>142.5299537484962</v>
       </c>
       <c r="V81">
-        <v>57.40225527058096</v>
+        <v>57.47376616312716</v>
       </c>
       <c r="X81">
         <v>3895.19460622893</v>
-      </c>
-      <c r="Y81">
-        <v>3585.888356473001</v>
-      </c>
-      <c r="Z81">
-        <v>3528.48610120242</v>
       </c>
       <c r="AE81" t="inlineStr">
         <is>
@@ -4852,26 +4606,14 @@
       <c r="Q82">
         <v>0.95</v>
       </c>
-      <c r="S82">
-        <v>827.2172134322519</v>
-      </c>
-      <c r="T82">
-        <v>738.1634643285925</v>
-      </c>
       <c r="U82">
-        <v>339.7263974016464</v>
+        <v>340.1496235934603</v>
       </c>
       <c r="V82">
-        <v>136.9912429646729</v>
+        <v>137.1619046574799</v>
       </c>
       <c r="X82">
         <v>10690.36373285621</v>
-      </c>
-      <c r="Y82">
-        <v>9952.200268527615</v>
-      </c>
-      <c r="Z82">
-        <v>9815.209025562941</v>
       </c>
       <c r="AE82" t="inlineStr">
         <is>
@@ -4939,26 +4681,14 @@
       <c r="Q83">
         <v>0.99</v>
       </c>
-      <c r="S83">
-        <v>844.9796074523604</v>
-      </c>
-      <c r="T83">
-        <v>754.0136546918357</v>
-      </c>
       <c r="U83">
-        <v>347.0211611368479</v>
+        <v>347.453475038947</v>
       </c>
       <c r="V83">
-        <v>139.9327828593117</v>
+        <v>140.1071090796244</v>
       </c>
       <c r="X83">
         <v>9562.673392779543</v>
-      </c>
-      <c r="Y83">
-        <v>8808.659738087707</v>
-      </c>
-      <c r="Z83">
-        <v>8668.726955228394</v>
       </c>
       <c r="AE83" t="inlineStr">
         <is>
@@ -5026,31 +4756,14 @@
       <c r="Q84">
         <v>0.99</v>
       </c>
-      <c r="R84" t="inlineStr">
-        <is>
-          <t>Millones de pesos corrientes</t>
-        </is>
-      </c>
-      <c r="S84">
-        <v>1215.839794699721</v>
-      </c>
-      <c r="T84">
-        <v>1084.949031948081</v>
-      </c>
       <c r="U84">
-        <v>499.3281892153494</v>
+        <v>499.9502449920075</v>
       </c>
       <c r="V84">
-        <v>201.3490556256038</v>
+        <v>201.5998933429243</v>
       </c>
       <c r="X84">
         <v>8118.352041598691</v>
-      </c>
-      <c r="Y84">
-        <v>7033.40300965061</v>
-      </c>
-      <c r="Z84">
-        <v>6832.053954025007</v>
       </c>
       <c r="AE84" t="inlineStr">
         <is>
@@ -5118,31 +4831,14 @@
       <c r="Q85">
         <v>1</v>
       </c>
-      <c r="R85" t="inlineStr">
-        <is>
-          <t>Millones de pesos corrientes</t>
-        </is>
-      </c>
-      <c r="S85">
-        <v>1306.096547433699</v>
-      </c>
-      <c r="T85">
-        <v>1165.489228882243</v>
-      </c>
       <c r="U85">
-        <v>536.3953596629539</v>
+        <v>537.0635931800226</v>
       </c>
       <c r="V85">
-        <v>216.2960182156122</v>
+        <v>216.5654766409628</v>
       </c>
       <c r="X85">
         <v>7981.857284640711</v>
-      </c>
-      <c r="Y85">
-        <v>6816.368055758468</v>
-      </c>
-      <c r="Z85">
-        <v>6600.072037542856</v>
       </c>
       <c r="AE85" t="inlineStr">
         <is>
@@ -5210,31 +4906,14 @@
       <c r="Q86">
         <v>0.99</v>
       </c>
-      <c r="R86" t="inlineStr">
-        <is>
-          <t>Millones de pesos corrientes</t>
-        </is>
-      </c>
-      <c r="S86">
-        <v>1534.79595539857</v>
-      </c>
-      <c r="T86">
-        <v>1369.568090554859</v>
-      </c>
       <c r="U86">
-        <v>630.3189684735413</v>
+        <v>631.1042106528228</v>
       </c>
       <c r="V86">
-        <v>254.1697660700605</v>
+        <v>254.4864070581933</v>
       </c>
       <c r="X86">
         <v>9841.893191238725</v>
-      </c>
-      <c r="Y86">
-        <v>8472.325100683866</v>
-      </c>
-      <c r="Z86">
-        <v>8218.155334613804</v>
       </c>
       <c r="AE86" t="inlineStr">
         <is>
@@ -5302,31 +4981,14 @@
       <c r="Q87">
         <v>1</v>
       </c>
-      <c r="R87" t="inlineStr">
-        <is>
-          <t>Millones de pesos corrientes</t>
-        </is>
-      </c>
-      <c r="S87">
-        <v>2050.895539708036</v>
-      </c>
-      <c r="T87">
-        <v>1830.107173768246</v>
-      </c>
       <c r="U87">
-        <v>780.0487224632733</v>
+        <v>843.3230529218535</v>
       </c>
       <c r="V87">
-        <v>443.6897682438976</v>
+        <v>340.0615145721009</v>
       </c>
       <c r="X87">
         <v>12039.80040235467</v>
-      </c>
-      <c r="Y87">
-        <v>10209.69322858642</v>
-      </c>
-      <c r="Z87">
-        <v>9766.003460342527</v>
       </c>
       <c r="AE87" t="inlineStr">
         <is>
@@ -5394,37 +5056,17 @@
       <c r="Q88">
         <v>1</v>
       </c>
-      <c r="R88" t="inlineStr">
-        <is>
-          <t>Millones de pesos corrientes</t>
-        </is>
-      </c>
-      <c r="S88">
-        <v>2057.700876299953</v>
-      </c>
-      <c r="T88">
-        <v>1836.179884481999</v>
-      </c>
       <c r="U88">
-        <v>856.4841881771175</v>
+        <v>846.1213900968774</v>
       </c>
       <c r="V88">
-        <v>469.027481046306</v>
+        <v>341.189915811371</v>
       </c>
       <c r="W88">
         <v>140.3441734589189</v>
       </c>
       <c r="X88">
         <v>11331.0368125968</v>
-      </c>
-      <c r="Y88">
-        <v>9494.856928114805</v>
-      </c>
-      <c r="Z88">
-        <v>9025.8294470685</v>
-      </c>
-      <c r="AA88">
-        <v>8609.386614119852</v>
       </c>
       <c r="AE88" t="inlineStr">
         <is>
@@ -5492,37 +5134,17 @@
       <c r="Q89">
         <v>1</v>
       </c>
-      <c r="R89" t="inlineStr">
-        <is>
-          <t>Millones de pesos corrientes</t>
-        </is>
-      </c>
-      <c r="S89">
-        <v>1535.274267534683</v>
-      </c>
-      <c r="T89">
-        <v>1369.994910182993</v>
-      </c>
       <c r="U89">
-        <v>919.0457341359484</v>
+        <v>631.3008913920736</v>
       </c>
       <c r="V89">
-        <v>497.5218701689601</v>
+        <v>254.5657165823965</v>
       </c>
       <c r="W89">
         <v>1152.292740357098</v>
       </c>
       <c r="X89">
         <v>7633.973152312845</v>
-      </c>
-      <c r="Y89">
-        <v>6263.978242129851</v>
-      </c>
-      <c r="Z89">
-        <v>5766.456371960891</v>
-      </c>
-      <c r="AA89">
-        <v>4428.149784080947</v>
       </c>
       <c r="AE89" t="inlineStr">
         <is>
@@ -5587,37 +5209,17 @@
       <c r="Q90">
         <v>1</v>
       </c>
-      <c r="R90" t="inlineStr">
-        <is>
-          <t>Millones de pesos corrientes</t>
-        </is>
-      </c>
-      <c r="S90">
-        <v>1921.408780401571</v>
-      </c>
-      <c r="T90">
-        <v>1714.560261443057</v>
-      </c>
       <c r="U90">
-        <v>847.4203581889631</v>
+        <v>790.0784253642592</v>
       </c>
       <c r="V90">
-        <v>490.41553573714</v>
+        <v>318.5911555829452</v>
       </c>
       <c r="W90">
         <v>1131.575850671096</v>
       </c>
       <c r="X90">
         <v>10040.1857609733</v>
-      </c>
-      <c r="Y90">
-        <v>8325.625499530246</v>
-      </c>
-      <c r="Z90">
-        <v>7835.209963793106</v>
-      </c>
-      <c r="AA90">
-        <v>6458.989084120706</v>
       </c>
       <c r="AE90" t="inlineStr">
         <is>
@@ -5682,37 +5284,17 @@
       <c r="Q91">
         <v>1</v>
       </c>
-      <c r="R91" t="inlineStr">
-        <is>
-          <t>Millones de pesos corrientes</t>
-        </is>
-      </c>
-      <c r="S91">
-        <v>2855.528276509999</v>
-      </c>
-      <c r="T91">
-        <v>2548.117484561395</v>
-      </c>
       <c r="U91">
-        <v>912.2856874580671</v>
+        <v>1174.18599691036</v>
       </c>
       <c r="V91">
-        <v>476.765560048752</v>
+        <v>473.4786593527283</v>
       </c>
       <c r="W91">
         <v>2193.249209578293</v>
       </c>
       <c r="X91">
         <v>16984.72834368756</v>
-      </c>
-      <c r="Y91">
-        <v>14436.61085912617</v>
-      </c>
-      <c r="Z91">
-        <v>13959.84529907742</v>
-      </c>
-      <c r="AA91">
-        <v>11352.73628081189</v>
       </c>
       <c r="AE91" t="inlineStr">
         <is>
@@ -5780,37 +5362,17 @@
       <c r="Q92">
         <v>1</v>
       </c>
-      <c r="R92" t="inlineStr">
-        <is>
-          <t>Millones de pesos corrientes</t>
-        </is>
-      </c>
-      <c r="S92">
-        <v>2671.845700633547</v>
-      </c>
-      <c r="T92">
-        <v>2384.209185333448</v>
-      </c>
       <c r="U92">
-        <v>965.5144977325607</v>
+        <v>1098.656186806657</v>
       </c>
       <c r="V92">
-        <v>472.6826740209632</v>
+        <v>443.0220252903503</v>
       </c>
       <c r="W92">
         <v>2450.768900537212</v>
       </c>
       <c r="X92">
         <v>14232.00911841002</v>
-      </c>
-      <c r="Y92">
-        <v>11847.79993307657</v>
-      </c>
-      <c r="Z92">
-        <v>11375.11725905561</v>
-      </c>
-      <c r="AA92">
-        <v>8577.562913865158</v>
       </c>
       <c r="AE92" t="inlineStr">
         <is>
@@ -5878,37 +5440,17 @@
       <c r="Q93">
         <v>3.14</v>
       </c>
-      <c r="R93" t="inlineStr">
-        <is>
-          <t>Millones de pesos corrientes</t>
-        </is>
-      </c>
-      <c r="S93">
-        <v>6709.618635349516</v>
-      </c>
-      <c r="T93">
-        <v>5987.297236772153</v>
-      </c>
       <c r="U93">
-        <v>1072.821197836895</v>
+        <v>2758.978193647949</v>
       </c>
       <c r="V93">
-        <v>565.47861260891</v>
+        <v>1112.530127040487</v>
       </c>
       <c r="W93">
         <v>3927.818961227893</v>
       </c>
       <c r="X93">
         <v>19084.40034787444</v>
-      </c>
-      <c r="Y93">
-        <v>13097.10311110229</v>
-      </c>
-      <c r="Z93">
-        <v>12531.62449849338</v>
-      </c>
-      <c r="AA93">
-        <v>8138.783894466159</v>
       </c>
       <c r="AE93" t="inlineStr">
         <is>
@@ -5976,37 +5518,17 @@
       <c r="Q94">
         <v>2.93</v>
       </c>
-      <c r="R94" t="inlineStr">
-        <is>
-          <t>Millones de pesos corrientes</t>
-        </is>
-      </c>
-      <c r="S94">
-        <v>7506.221822636301</v>
-      </c>
-      <c r="T94">
-        <v>6698.142416096954</v>
-      </c>
       <c r="U94">
-        <v>1368.452879144754</v>
+        <v>3086.539407207176</v>
       </c>
       <c r="V94">
-        <v>644.0179284627141</v>
+        <v>1244.615882329745</v>
       </c>
       <c r="W94">
         <v>3710.739805031019</v>
       </c>
       <c r="X94">
         <v>23788.33409636621</v>
-      </c>
-      <c r="Y94">
-        <v>17090.19168026925</v>
-      </c>
-      <c r="Z94">
-        <v>16446.17375180654</v>
-      </c>
-      <c r="AA94">
-        <v>12155.79350750002</v>
       </c>
       <c r="AE94" t="inlineStr">
         <is>
@@ -6080,10 +5602,10 @@
         </is>
       </c>
       <c r="S95">
-        <v>13067.781</v>
+        <v>13346.36239762477</v>
       </c>
       <c r="T95">
-        <v>11660.97409170677</v>
+        <v>11909.56491673926</v>
       </c>
       <c r="U95">
         <v>1713.839257256747</v>
@@ -6098,13 +5620,13 @@
         <v>29632.56058355719</v>
       </c>
       <c r="Y95">
-        <v>17971.58649185042</v>
+        <v>17722.99566681793</v>
       </c>
       <c r="Z95">
-        <v>17219.06970256744</v>
+        <v>16970.47887753495</v>
       </c>
       <c r="AA95">
-        <v>12587.35059502803</v>
+        <v>12338.75976999554</v>
       </c>
       <c r="AE95" t="inlineStr">
         <is>
@@ -6178,10 +5700,10 @@
         </is>
       </c>
       <c r="S96">
-        <v>15784.721</v>
+        <v>14765.02265958411</v>
       </c>
       <c r="T96">
-        <v>14085.42296705308</v>
+        <v>13175.49985700509</v>
       </c>
       <c r="U96">
         <v>2402.183427708314</v>
@@ -6196,13 +5718,13 @@
         <v>43749.2350569521</v>
       </c>
       <c r="Y96">
-        <v>29663.81208989902</v>
+        <v>30573.73519994702</v>
       </c>
       <c r="Z96">
-        <v>28684.16831192475</v>
+        <v>29594.09142197275</v>
       </c>
       <c r="AA96">
-        <v>23056.17795848625</v>
+        <v>23966.10106853424</v>
       </c>
       <c r="AE96" t="inlineStr">
         <is>
@@ -6276,10 +5798,10 @@
         </is>
       </c>
       <c r="S97">
-        <v>19280.474</v>
+        <v>20655.76321874334</v>
       </c>
       <c r="T97">
-        <v>17204.84203016763</v>
+        <v>18432.07502009682</v>
       </c>
       <c r="U97">
         <v>3281.07803568129</v>
@@ -6294,13 +5816,13 @@
         <v>59731.65082586783</v>
       </c>
       <c r="Y97">
-        <v>42526.8087957002</v>
+        <v>41299.57580577101</v>
       </c>
       <c r="Z97">
-        <v>41242.55171152676</v>
+        <v>40015.31872159757</v>
       </c>
       <c r="AA97">
-        <v>34726.94110695384</v>
+        <v>33499.70811702465</v>
       </c>
       <c r="AE97" t="inlineStr">
         <is>
@@ -6374,10 +5896,10 @@
         </is>
       </c>
       <c r="S98">
-        <v>25197.611</v>
+        <v>24770.86379173943</v>
       </c>
       <c r="T98">
-        <v>22484.97193547287</v>
+        <v>22104.16603283074</v>
       </c>
       <c r="U98">
         <v>4595.498605305907</v>
@@ -6392,13 +5914,13 @@
         <v>72134.23853070798</v>
       </c>
       <c r="Y98">
-        <v>49649.26659523512</v>
+        <v>50030.07249787724</v>
       </c>
       <c r="Z98">
-        <v>47879.39516757209</v>
+        <v>48260.20107021421</v>
       </c>
       <c r="AA98">
-        <v>40836.88162223218</v>
+        <v>41217.6875248743</v>
       </c>
       <c r="AE98" t="inlineStr">
         <is>
@@ -6472,10 +5994,10 @@
         </is>
       </c>
       <c r="S99">
-        <v>30013.099</v>
+        <v>29549.65160836547</v>
       </c>
       <c r="T99">
-        <v>26782.05043770097</v>
+        <v>26368.49529572856</v>
       </c>
       <c r="U99">
         <v>6940.769281061585</v>
@@ -6490,13 +6012,13 @@
         <v>142261.1549017193</v>
       </c>
       <c r="Y99">
-        <v>115479.1044640183</v>
+        <v>115892.6596059908</v>
       </c>
       <c r="Z99">
-        <v>113011.1758845289</v>
+        <v>113424.7310265013</v>
       </c>
       <c r="AA99">
-        <v>103618.8279838099</v>
+        <v>104032.3831257823</v>
       </c>
       <c r="AE99" t="inlineStr">
         <is>
@@ -6570,10 +6092,10 @@
         </is>
       </c>
       <c r="S100">
-        <v>28909.671</v>
+        <v>28873.78247737324</v>
       </c>
       <c r="T100">
-        <v>25797.41155218063</v>
+        <v>25765.38659457381</v>
       </c>
       <c r="U100">
         <v>8284.085055596654</v>
@@ -6588,13 +6110,13 @@
         <v>96590.64057663317</v>
       </c>
       <c r="Y100">
-        <v>70793.22902445254</v>
+        <v>70825.25398205937</v>
       </c>
       <c r="Z100">
-        <v>67808.42124489196</v>
+        <v>67840.44620249879</v>
       </c>
       <c r="AA100">
-        <v>59088.78430879059</v>
+        <v>59120.80926639742</v>
       </c>
       <c r="AE100" t="inlineStr">
         <is>
@@ -6668,10 +6190,10 @@
         </is>
       </c>
       <c r="S101">
-        <v>34220.142</v>
+        <v>34583.54418547882</v>
       </c>
       <c r="T101">
-        <v>30536.18585102755</v>
+        <v>30860.46611481053</v>
       </c>
       <c r="U101">
         <v>10797.5146733119</v>
@@ -6686,13 +6208,13 @@
         <v>148549.3351816518</v>
       </c>
       <c r="Y101">
-        <v>118013.1493306242</v>
+        <v>117688.8690668412</v>
       </c>
       <c r="Z101">
-        <v>114295.5954662717</v>
+        <v>113971.3152024887</v>
       </c>
       <c r="AA101">
-        <v>102396.6813314383</v>
+        <v>102072.4010676553</v>
       </c>
       <c r="AE101" t="inlineStr">
         <is>
@@ -6766,10 +6288,10 @@
         </is>
       </c>
       <c r="S102">
-        <v>37988.915</v>
+        <v>45478.13318051624</v>
       </c>
       <c r="T102">
-        <v>33899.23305165971</v>
+        <v>40582.20234615119</v>
       </c>
       <c r="U102">
         <v>15347.15504543464</v>
@@ -6784,13 +6306,13 @@
         <v>205677.8311720429</v>
       </c>
       <c r="Y102">
-        <v>171778.5981203832</v>
+        <v>165095.6288258917</v>
       </c>
       <c r="Z102">
-        <v>166690.8337933185</v>
+        <v>160007.864498827</v>
       </c>
       <c r="AA102">
-        <v>151018.0411944325</v>
+        <v>144335.071899941</v>
       </c>
       <c r="AE102" t="inlineStr">
         <is>
@@ -6864,10 +6386,10 @@
         </is>
       </c>
       <c r="S103">
-        <v>58324.931</v>
+        <v>56426.68120879387</v>
       </c>
       <c r="T103">
-        <v>52045.98311615301</v>
+        <v>50352.08867188259</v>
       </c>
       <c r="U103">
         <v>19042.74153551916</v>
@@ -6882,13 +6404,13 @@
         <v>267217.2743558198</v>
       </c>
       <c r="Y103">
-        <v>215171.2912396668</v>
+        <v>216865.1856839372</v>
       </c>
       <c r="Z103">
-        <v>208809.6341302492</v>
+        <v>210503.5285745196</v>
       </c>
       <c r="AA103">
-        <v>186836.9972234762</v>
+        <v>188530.8916677467</v>
       </c>
       <c r="AE103" t="inlineStr">
         <is>
@@ -6962,10 +6484,10 @@
         </is>
       </c>
       <c r="S104">
-        <v>35152.89729593066</v>
+        <v>67716.62572081837</v>
       </c>
       <c r="T104">
-        <v>31368.52573641053</v>
+        <v>60426.61857497208</v>
       </c>
       <c r="U104">
         <v>24838.8156354</v>
@@ -6980,13 +6502,13 @@
         <v>285895.17277545</v>
       </c>
       <c r="Y104">
-        <v>254526.6470390395</v>
+        <v>225468.5542004779</v>
       </c>
       <c r="Z104">
-        <v>246301.4353586395</v>
+        <v>217243.3425200779</v>
       </c>
       <c r="AA104">
-        <v>213922.1448374843</v>
+        <v>184864.0519989228</v>
       </c>
       <c r="AE104" t="inlineStr">
         <is>
@@ -7060,10 +6582,10 @@
         </is>
       </c>
       <c r="S105">
-        <v>54449.5945149948</v>
+        <v>84873.94397038275</v>
       </c>
       <c r="T105">
-        <v>48587.84448126989</v>
+        <v>75736.87236567595</v>
       </c>
       <c r="U105">
         <v>36406.33695203321</v>
@@ -7078,13 +6600,13 @@
         <v>386461.4308741315</v>
       </c>
       <c r="Y105">
-        <v>337873.5863928616</v>
+        <v>310724.5585084555</v>
       </c>
       <c r="Z105">
-        <v>326282.1635975095</v>
+        <v>299133.1357131034</v>
       </c>
       <c r="AA105">
-        <v>280661.6526740843</v>
+        <v>253512.6247896782</v>
       </c>
       <c r="AE105" t="inlineStr">
         <is>
@@ -7152,17 +6674,22 @@
       <c r="Q106">
         <v>9.43</v>
       </c>
+      <c r="R106" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
       <c r="S106">
-        <v>57041.54491716338</v>
+        <v>88043.63651478694</v>
       </c>
       <c r="T106">
-        <v>50900.75946558718</v>
+        <v>78565.33288540562</v>
       </c>
       <c r="U106">
-        <v>23426.15487476094</v>
+        <v>49158.39415409092</v>
       </c>
       <c r="V106">
-        <v>9446.360655873132</v>
+        <v>15755.53551837146</v>
       </c>
       <c r="W106">
         <v>54020.71580722831</v>
@@ -7171,13 +6698,13 @@
         <v>287969.2724474781</v>
       </c>
       <c r="Y106">
-        <v>237068.512981891</v>
+        <v>209403.9395620725</v>
       </c>
       <c r="Z106">
-        <v>227622.1523260178</v>
+        <v>193648.404043701</v>
       </c>
       <c r="AA106">
-        <v>166584.6090729029</v>
+        <v>132610.8607905861</v>
       </c>
       <c r="AE106" t="inlineStr">
         <is>
@@ -7245,17 +6772,22 @@
       <c r="Q107">
         <v>14.7774461886724</v>
       </c>
+      <c r="R107" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
       <c r="S107">
-        <v>87832.46517206859</v>
+        <v>136120.4581962787</v>
       </c>
       <c r="T107">
-        <v>78376.89511189614</v>
+        <v>121466.4629272606</v>
       </c>
       <c r="U107">
-        <v>36071.54987020374</v>
+        <v>55785.67350555433</v>
       </c>
       <c r="V107">
-        <v>14545.48863490067</v>
+        <v>19464.26682756241</v>
       </c>
       <c r="W107">
         <v>88690.97627182691</v>
@@ -7264,13 +6796,13 @@
         <v>289592.4842444696</v>
       </c>
       <c r="Y107">
-        <v>211215.5891325734</v>
+        <v>168126.0213172089</v>
       </c>
       <c r="Z107">
-        <v>196670.1004976727</v>
+        <v>148661.7544896465</v>
       </c>
       <c r="AA107">
-        <v>100922.7446534743</v>
+        <v>52914.39864544806</v>
       </c>
       <c r="AE107" t="inlineStr">
         <is>
@@ -7338,17 +6870,22 @@
       <c r="Q108">
         <v>16.55</v>
       </c>
+      <c r="R108" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
       <c r="S108">
-        <v>95482.36091436511</v>
+        <v>144831.9413150367</v>
       </c>
       <c r="T108">
-        <v>85203.24428741245</v>
+        <v>129240.1147008997</v>
       </c>
       <c r="U108">
-        <v>39213.25374051547</v>
+        <v>64891.72700178792</v>
       </c>
       <c r="V108">
-        <v>15812.34903053868</v>
+        <v>24538.41488058235</v>
       </c>
       <c r="W108">
         <v>34428.32684545482</v>
@@ -7357,13 +6894,13 @@
         <v>364801.4844202921</v>
       </c>
       <c r="Y108">
-        <v>279598.2401328796</v>
+        <v>235561.3697193924</v>
       </c>
       <c r="Z108">
-        <v>263785.891102341</v>
+        <v>211022.9548388101</v>
       </c>
       <c r="AA108">
-        <v>220468.5982695607</v>
+        <v>167705.6620060298</v>
       </c>
       <c r="AE108" t="inlineStr">
         <is>
@@ -7431,17 +6968,22 @@
       <c r="Q109">
         <v>39</v>
       </c>
+      <c r="R109" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
       <c r="S109">
-        <v>246966.0941469409</v>
+        <v>381457.8858882181</v>
       </c>
       <c r="T109">
-        <v>220379.0548202096</v>
+        <v>340392.1847496334</v>
       </c>
       <c r="U109">
-        <v>101425.4781966858</v>
+        <v>88714.51168128941</v>
       </c>
       <c r="V109">
-        <v>40898.80101375657</v>
+        <v>36127.37433032937</v>
       </c>
       <c r="W109">
         <v>70010.96091192566</v>
@@ -7450,13 +6992,13 @@
         <v>789616.6434475192</v>
       </c>
       <c r="Y109">
-        <v>569237.5886273095</v>
+        <v>449224.4586978858</v>
       </c>
       <c r="Z109">
-        <v>528338.787613553</v>
+        <v>413097.0843675564</v>
       </c>
       <c r="AA109">
-        <v>439087.5664878159</v>
+        <v>323845.8632418194</v>
       </c>
       <c r="AE109" t="inlineStr">
         <is>
@@ -7512,6 +7054,17 @@
       <c r="N110">
         <v>5.728814685109065</v>
       </c>
+      <c r="R110" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="U110">
+        <v>143278.0112145623</v>
+      </c>
+      <c r="V110">
+        <v>59451.14497418605</v>
+      </c>
       <c r="AE110" t="inlineStr">
         <is>
           <t>Criterio propio</t>
@@ -7554,6 +7107,11 @@
       </c>
       <c r="K111">
         <v>18946714.8243</v>
+      </c>
+      <c r="R111" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
       </c>
       <c r="AE111" t="inlineStr">
         <is>
@@ -7641,23 +7199,14 @@
       <c r="D2">
         <v>269216.1200613433</v>
       </c>
-      <c r="E2">
-        <v>0.4144880013961159</v>
-      </c>
       <c r="F2">
         <v>0.135698927</v>
       </c>
-      <c r="G2">
-        <v>4428.149784080947</v>
-      </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
         <v>36532.33862342746</v>
-      </c>
-      <c r="J2">
-        <v>75054.5129244155</v>
       </c>
     </row>
     <row r="3">
@@ -7675,23 +7224,14 @@
       <c r="D3">
         <v>209269.210735943</v>
       </c>
-      <c r="E3">
-        <v>0.7869490373656033</v>
-      </c>
       <c r="F3">
         <v>0.107747531</v>
       </c>
-      <c r="G3">
-        <v>6458.989084120706</v>
-      </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
         <v>22548.24077111655</v>
-      </c>
-      <c r="J3">
-        <v>142135.9631677934</v>
       </c>
     </row>
     <row r="4">
@@ -7709,23 +7249,14 @@
       <c r="D4">
         <v>391834.7982269349</v>
       </c>
-      <c r="E4">
-        <v>0.7457283978731049</v>
-      </c>
       <c r="F4">
         <v>0.117066142</v>
       </c>
-      <c r="G4">
-        <v>11352.73628081189</v>
-      </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
         <v>45870.58812977571</v>
-      </c>
-      <c r="J4">
-        <v>246331.7481829278</v>
       </c>
     </row>
     <row r="5">
@@ -7743,23 +7274,14 @@
       <c r="D5">
         <v>645791.705005449</v>
       </c>
-      <c r="E5">
-        <v>0.3455462813822228</v>
-      </c>
       <c r="F5">
         <v>0.114123054</v>
       </c>
-      <c r="G5">
-        <v>8577.562913865158</v>
-      </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
         <v>73699.72162308893</v>
-      </c>
-      <c r="J5">
-        <v>149451.2005890294</v>
       </c>
     </row>
     <row r="6">
@@ -7777,23 +7299,14 @@
       <c r="D6">
         <v>532437.5491901466</v>
       </c>
-      <c r="E6">
-        <v>0.3159428750192427</v>
-      </c>
       <c r="F6">
         <v>0.188701126</v>
       </c>
-      <c r="G6">
-        <v>8138.783894466159</v>
-      </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
         <v>100471.5650568611</v>
-      </c>
-      <c r="J6">
-        <v>67748.28500247331</v>
       </c>
     </row>
     <row r="7">
@@ -7811,23 +7324,14 @@
       <c r="D7">
         <v>529712.6896753556</v>
       </c>
-      <c r="E7">
-        <v>0.418103242567504</v>
-      </c>
       <c r="F7">
         <v>0.195745529</v>
       </c>
-      <c r="G7">
-        <v>12155.79350750002</v>
-      </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
         <v>103688.8906585153</v>
-      </c>
-      <c r="J7">
-        <v>117785.7025239048</v>
       </c>
     </row>
     <row r="8">
@@ -7846,13 +7350,13 @@
         <v>877949.7356656358</v>
       </c>
       <c r="E8">
-        <v>0.2501724006458735</v>
+        <v>0.2452316815479658</v>
       </c>
       <c r="F8">
         <v>0.185661556</v>
       </c>
       <c r="G8">
-        <v>12587.35059502803</v>
+        <v>12338.75976999554</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -7861,7 +7365,7 @@
         <v>163001.5140134707</v>
       </c>
       <c r="J8">
-        <v>56637.27900441157</v>
+        <v>52299.57597840528</v>
       </c>
     </row>
     <row r="9">
@@ -7880,13 +7384,13 @@
         <v>528077.7739664811</v>
       </c>
       <c r="E9">
-        <v>0.6948459535318754</v>
+        <v>0.7222683820098477</v>
       </c>
       <c r="F9">
         <v>0.181745386</v>
       </c>
       <c r="G9">
-        <v>23056.17795848625</v>
+        <v>23966.10106853424</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -7895,7 +7399,7 @@
         <v>95975.69886755887</v>
       </c>
       <c r="J9">
-        <v>270957.0055231709</v>
+        <v>285438.1805105735</v>
       </c>
     </row>
     <row r="10">
@@ -7914,13 +7418,13 @@
         <v>562955.9757558049</v>
       </c>
       <c r="E10">
-        <v>0.8852547391800091</v>
+        <v>0.8539702728324874</v>
       </c>
       <c r="F10">
         <v>0.179536264</v>
       </c>
       <c r="G10">
-        <v>34726.94110695384</v>
+        <v>33499.70811702465</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -7929,7 +7433,7 @@
         <v>101071.0126836718</v>
       </c>
       <c r="J10">
-        <v>397288.4328038608</v>
+        <v>379676.6555251921</v>
       </c>
     </row>
     <row r="11">
@@ -7948,13 +7452,13 @@
         <v>675765.1596681491</v>
       </c>
       <c r="E11">
-        <v>0.7668979187833771</v>
+        <v>0.7740492790879719</v>
       </c>
       <c r="F11">
         <v>0.177969154</v>
       </c>
       <c r="G11">
-        <v>40836.88162223218</v>
+        <v>41217.6875248743</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -7963,7 +7467,7 @@
         <v>120265.3537688154</v>
       </c>
       <c r="J11">
-        <v>397977.5407670047</v>
+        <v>402810.1809050837</v>
       </c>
     </row>
     <row r="12">
@@ -7982,13 +7486,13 @@
         <v>682849.7944066055</v>
       </c>
       <c r="E12">
-        <v>1.570210453954214</v>
+        <v>1.5764773517743</v>
       </c>
       <c r="F12">
         <v>0.177329043</v>
       </c>
       <c r="G12">
-        <v>103618.8279838099</v>
+        <v>104032.3831257823</v>
       </c>
       <c r="H12">
         <v>6686.514456747649</v>
@@ -7997,7 +7501,7 @@
         <v>121089.1005548701</v>
       </c>
       <c r="J12">
-        <v>944442.27064612</v>
+        <v>948721.6205341329</v>
       </c>
     </row>
     <row r="13">
@@ -8016,13 +7520,13 @@
         <v>612003.4470220415</v>
       </c>
       <c r="E13">
-        <v>0.8699037858736817</v>
+        <v>0.8703752565967724</v>
       </c>
       <c r="F13">
         <v>0.168781923</v>
       </c>
       <c r="G13">
-        <v>59088.78430879059</v>
+        <v>59120.80926639742</v>
       </c>
       <c r="H13">
         <v>22840.09983724428</v>
@@ -8031,7 +7535,7 @@
         <v>103295.1186710088</v>
       </c>
       <c r="J13">
-        <v>406248.897023964</v>
+        <v>406537.4387316656</v>
       </c>
     </row>
     <row r="14">
@@ -8050,13 +7554,13 @@
         <v>738436.9285083405</v>
       </c>
       <c r="E14">
-        <v>0.9927409983528103</v>
+        <v>0.9895970848135424</v>
       </c>
       <c r="F14">
         <v>0.168907292</v>
       </c>
       <c r="G14">
-        <v>102396.6813314383</v>
+        <v>102072.4010676553</v>
       </c>
       <c r="H14">
         <v>28406.20760098745</v>
@@ -8065,7 +7569,7 @@
         <v>124727.3819071414</v>
       </c>
       <c r="J14">
-        <v>579943.0241198239</v>
+        <v>577621.4422623911</v>
       </c>
     </row>
     <row r="15">
@@ -8084,13 +7588,13 @@
         <v>680669.9067947728</v>
       </c>
       <c r="E15">
-        <v>1.282490111343318</v>
+        <v>1.225736348900051</v>
       </c>
       <c r="F15">
         <v>0.165799322</v>
       </c>
       <c r="G15">
-        <v>151018.0411944325</v>
+        <v>144335.071899941</v>
       </c>
       <c r="H15">
         <v>31668.95361576589</v>
@@ -8099,7 +7603,7 @@
         <v>112854.6090523765</v>
       </c>
       <c r="J15">
-        <v>728428.8618851317</v>
+        <v>689798.2836926204</v>
       </c>
     </row>
     <row r="16">
@@ -8118,13 +7622,13 @@
         <v>635437.2388492434</v>
       </c>
       <c r="E16">
-        <v>1.374636668016207</v>
+        <v>1.387099346444174</v>
       </c>
       <c r="F16">
         <v>0.156365551</v>
       </c>
       <c r="G16">
-        <v>186836.9972234762</v>
+        <v>188530.8916677467</v>
       </c>
       <c r="H16">
         <v>20304.75734662714</v>
@@ -8133,7 +7637,7 @@
         <v>99360.49397858055</v>
       </c>
       <c r="J16">
-        <v>753830.0774199351</v>
+        <v>761749.3273888682</v>
       </c>
     </row>
     <row r="17">
@@ -8152,13 +7656,13 @@
         <v>770045.2988799152</v>
       </c>
       <c r="E17">
-        <v>1.031554205842642</v>
+        <v>0.8914331449578232</v>
       </c>
       <c r="F17">
         <v>0.153400732</v>
       </c>
       <c r="G17">
-        <v>213922.1448374843</v>
+        <v>184864.0519989228</v>
       </c>
       <c r="H17">
         <v>43523.39928321803</v>
@@ -8167,7 +7671,7 @@
         <v>118125.5125213378</v>
       </c>
       <c r="J17">
-        <v>632694.5549443747</v>
+        <v>524794.9907359538</v>
       </c>
     </row>
     <row r="18">
@@ -8186,13 +7690,13 @@
         <v>911737.9936490433</v>
       </c>
       <c r="E18">
-        <v>0.8010965301079961</v>
+        <v>0.7236046753184898</v>
       </c>
       <c r="F18">
         <v>0.158603639</v>
       </c>
       <c r="G18">
-        <v>280661.6526740843</v>
+        <v>253512.6247896782</v>
       </c>
       <c r="H18">
         <v>47207.29103090671</v>
@@ -8201,7 +7705,7 @@
         <v>144604.9636072971</v>
       </c>
       <c r="J18">
-        <v>538577.8884416708</v>
+        <v>467925.6202317434</v>
       </c>
     </row>
     <row r="19">
@@ -8220,13 +7724,13 @@
         <v>877404.7637626776</v>
       </c>
       <c r="E19">
-        <v>0.3903753069790713</v>
+        <v>0.3107610347557892</v>
       </c>
       <c r="F19">
         <v>0.152714321</v>
       </c>
       <c r="G19">
-        <v>166584.6090729029</v>
+        <v>132610.8607905861</v>
       </c>
       <c r="H19">
         <v>57430.71189412219</v>
@@ -8235,7 +7739,7 @@
         <v>133992.2727401827</v>
       </c>
       <c r="J19">
-        <v>151094.1693644499</v>
+        <v>81240.22765224357</v>
       </c>
     </row>
     <row r="20">
@@ -8254,13 +7758,13 @@
         <v>638707.0702669927</v>
       </c>
       <c r="E20">
-        <v>0.233819666949148</v>
+        <v>0.1225930498677455</v>
       </c>
       <c r="F20">
         <v>0.157300074</v>
       </c>
       <c r="G20">
-        <v>100922.7446534743</v>
+        <v>52914.39864544806</v>
       </c>
       <c r="H20">
         <v>17493.75669023072</v>
@@ -8269,7 +7773,7 @@
         <v>100468.6694173212</v>
       </c>
       <c r="J20">
-        <v>31379.84834034243</v>
+        <v>-39661.37839142883</v>
       </c>
     </row>
     <row r="21">
@@ -8288,13 +7792,13 @@
         <v>595654.289933296</v>
       </c>
       <c r="E21">
-        <v>0.4437905263813352</v>
+        <v>0.3375817898918533</v>
       </c>
       <c r="F21">
         <v>0.157291505</v>
       </c>
       <c r="G21">
-        <v>220468.5982695607</v>
+        <v>167705.6620060298</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -8303,7 +7807,7 @@
         <v>93691.35972331448</v>
       </c>
       <c r="J21">
-        <v>170654.3711474834</v>
+        <v>107390.6816291285</v>
       </c>
     </row>
     <row r="22">
@@ -8322,13 +7826,13 @@
         <v>643066.8454906581</v>
       </c>
       <c r="E22">
-        <v>0.682802370495082</v>
+        <v>0.5035959566454185</v>
       </c>
       <c r="F22">
         <v>0.157437741</v>
       </c>
       <c r="G22">
-        <v>439087.5664878159</v>
+        <v>323845.8632418194</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -8337,7 +7841,7 @@
         <v>101242.9914660452</v>
       </c>
       <c r="J22">
-        <v>337844.5750217707</v>
+        <v>222602.8717757742</v>
       </c>
     </row>
     <row r="23">

--- a/analisis/resultados/argentina/renta_metodo_directo.xlsx
+++ b/analisis/resultados/argentina/renta_metodo_directo.xlsx
@@ -426,7 +426,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>precio_expo_gas_comtrade</t>
+          <t>precio_exportacion_gas_ar</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -2024,7 +2024,7 @@
         </is>
       </c>
       <c r="C42">
-        <v>24467322</v>
+        <v>24464806.08</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -2110,7 +2110,7 @@
         </is>
       </c>
       <c r="C44">
-        <v>28499083.8</v>
+        <v>28501599.72</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -2153,7 +2153,7 @@
         </is>
       </c>
       <c r="C45">
-        <v>29574639.6</v>
+        <v>29572123.68</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="C46">
-        <v>30505530</v>
+        <v>30504272.04</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -2239,7 +2239,7 @@
         </is>
       </c>
       <c r="C47">
-        <v>31015003.8</v>
+        <v>31011858.9</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -2282,7 +2282,7 @@
         </is>
       </c>
       <c r="C48">
-        <v>33952340.4</v>
+        <v>33951711.41999999</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -2325,7 +2325,7 @@
         </is>
       </c>
       <c r="C49">
-        <v>35656876.2</v>
+        <v>35656247.22</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         </is>
       </c>
       <c r="C50">
-        <v>44575812.59999999</v>
+        <v>44578328.52</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -2411,7 +2411,7 @@
         </is>
       </c>
       <c r="C51">
-        <v>63860339.4</v>
+        <v>63859811.05679999</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -2454,7 +2454,7 @@
         </is>
       </c>
       <c r="C52">
-        <v>84459434.39999999</v>
+        <v>84461610.6708</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -2497,7 +2497,7 @@
         </is>
       </c>
       <c r="C53">
-        <v>98208937.19999999</v>
+        <v>98205911.8062</v>
       </c>
       <c r="D53">
         <v>1600164.59776432</v>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="C54">
-        <v>97139671.19999999</v>
+        <v>97140620.95979999</v>
       </c>
       <c r="D54">
         <v>640739.0198585599</v>
@@ -2594,10 +2594,10 @@
         <v>1.39e-011</v>
       </c>
       <c r="U54">
-        <v>3.917944184840152e-010</v>
+        <v>4.294195298040208e-010</v>
       </c>
       <c r="V54">
-        <v>1.579871472610104e-010</v>
+        <v>1.711522638371494e-010</v>
       </c>
       <c r="AE54" t="inlineStr">
         <is>
@@ -2615,7 +2615,7 @@
         </is>
       </c>
       <c r="C55">
-        <v>100278281.4</v>
+        <v>100275727.7412</v>
       </c>
       <c r="D55">
         <v>101996.187941</v>
@@ -2666,13 +2666,13 @@
         <v>1.41e-011</v>
       </c>
       <c r="U55">
-        <v>2.860105033934616e-010</v>
+        <v>3.134658541284864e-010</v>
       </c>
       <c r="V55">
-        <v>1.15330850532936e-010</v>
+        <v>1.249370064613064e-010</v>
       </c>
       <c r="X55">
-        <v>3.556430118509356e-009</v>
+        <v>3.556349796281209e-009</v>
       </c>
       <c r="AE55" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         </is>
       </c>
       <c r="C56">
-        <v>99536085</v>
+        <v>98276326.11719999</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -2741,13 +2741,13 @@
         <v>1.68e-011</v>
       </c>
       <c r="U56">
-        <v>4.840641396877398e-010</v>
+        <v>5.238316938068898e-010</v>
       </c>
       <c r="V56">
-        <v>1.951939816205967e-010</v>
+        <v>2.087817950562578e-010</v>
       </c>
       <c r="X56">
-        <v>6.174960698692978e-009</v>
+        <v>6.101645389253965e-009</v>
       </c>
       <c r="AE56" t="inlineStr">
         <is>
@@ -2765,7 +2765,7 @@
         </is>
       </c>
       <c r="C57">
-        <v>104756619</v>
+        <v>104759675.8428</v>
       </c>
       <c r="D57">
         <v>19421.3608275</v>
@@ -2816,13 +2816,13 @@
         <v>2.07e-011</v>
       </c>
       <c r="U57">
-        <v>8.856481167658175e-010</v>
+        <v>9.70718229363162e-010</v>
       </c>
       <c r="V57">
-        <v>3.571286696383256e-010</v>
+        <v>3.868958232507914e-010</v>
       </c>
       <c r="X57">
-        <v>1.459017727465349e-008</v>
+        <v>1.459059701249945e-008</v>
       </c>
       <c r="AE57" t="inlineStr">
         <is>
@@ -2840,7 +2840,7 @@
         </is>
       </c>
       <c r="C58">
-        <v>114675633.6</v>
+        <v>114673312.6638</v>
       </c>
       <c r="D58">
         <v>58111.59861867</v>
@@ -2891,13 +2891,13 @@
         <v>3.31e-011</v>
       </c>
       <c r="U58">
-        <v>1.058134715771053e-009</v>
+        <v>1.159715570983642e-009</v>
       </c>
       <c r="V58">
-        <v>4.266821508314293e-010</v>
+        <v>4.622238431298848e-010</v>
       </c>
       <c r="X58">
-        <v>6.982360257073593e-009</v>
+        <v>6.982224903171375e-009</v>
       </c>
       <c r="AE58" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         </is>
       </c>
       <c r="C59">
-        <v>125500379.4</v>
+        <v>125488170.8982</v>
       </c>
       <c r="D59">
         <v>1182294.78060432</v>
@@ -2963,10 +2963,10 @@
         <v>3.5e-011</v>
       </c>
       <c r="U59">
-        <v>1.44643579467446e-009</v>
+        <v>1.585170625671023e-009</v>
       </c>
       <c r="V59">
-        <v>5.832606441435403e-010</v>
+        <v>6.317959997663937e-010</v>
       </c>
       <c r="AE59" t="inlineStr">
         <is>
@@ -2984,7 +2984,7 @@
         </is>
       </c>
       <c r="C60">
-        <v>126846396.6</v>
+        <v>130081536.3606</v>
       </c>
       <c r="D60">
         <v>381429.802925</v>
@@ -3032,10 +3032,10 @@
         <v>3.5e-011</v>
       </c>
       <c r="U60">
-        <v>1.468424657836657e-009</v>
+        <v>1.650492871600285e-009</v>
       </c>
       <c r="V60">
-        <v>5.921274314141454e-010</v>
+        <v>6.578312624728258e-010</v>
       </c>
       <c r="AE60" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         </is>
       </c>
       <c r="C61">
-        <v>143420019.6</v>
+        <v>143397621.6222</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -3101,10 +3101,10 @@
         <v>3.77e-011</v>
       </c>
       <c r="U61">
-        <v>1.78243555901438e-009</v>
+        <v>1.953305993242064e-009</v>
       </c>
       <c r="V61">
-        <v>7.187491599162616e-010</v>
+        <v>7.785224460159627e-010</v>
       </c>
       <c r="AE61" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         </is>
       </c>
       <c r="C62">
-        <v>154458618.6</v>
+        <v>154510553.4786</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -3170,10 +3170,10 @@
         <v>4.59e-011</v>
       </c>
       <c r="U62">
-        <v>1.968797170974536e-009</v>
+        <v>2.158504125677133e-009</v>
       </c>
       <c r="V62">
-        <v>7.938976001275142e-010</v>
+        <v>8.603075593233276e-010</v>
       </c>
       <c r="AE62" t="inlineStr">
         <is>
@@ -3191,7 +3191,7 @@
         </is>
       </c>
       <c r="C63">
-        <v>158471511</v>
+        <v>158461780.6794</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -3242,13 +3242,13 @@
         <v>8e-011</v>
       </c>
       <c r="U63">
-        <v>2.673709583192473e-009</v>
+        <v>2.93027849154626e-009</v>
       </c>
       <c r="V63">
-        <v>1.0781464199706e-009</v>
+        <v>1.167911011710007e-009</v>
       </c>
       <c r="X63">
-        <v>4.255306628371884e-008</v>
+        <v>4.255045368694049e-008</v>
       </c>
       <c r="AE63" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="C64">
-        <v>153722712</v>
+        <v>153728574.0936</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -3311,7 +3311,7 @@
         <v>8.68e-011</v>
       </c>
       <c r="X64">
-        <v>1.204318077354599e-007</v>
+        <v>1.204349753294321e-007</v>
       </c>
       <c r="AE64" t="inlineStr">
         <is>
@@ -3329,7 +3329,7 @@
         </is>
       </c>
       <c r="C65">
-        <v>151093575.6</v>
+        <v>151095236.1072</v>
       </c>
       <c r="D65">
         <v>220506.44815168</v>
@@ -3380,13 +3380,13 @@
         <v>8.68e-011</v>
       </c>
       <c r="U65">
-        <v>1.164196081281909e-008</v>
+        <v>1.27599828008429e-008</v>
       </c>
       <c r="V65">
-        <v>4.69450326642875e-009</v>
+        <v>5.085702422253697e-009</v>
       </c>
       <c r="X65">
-        <v>3.029497926353049e-007</v>
+        <v>3.029529848701026e-007</v>
       </c>
       <c r="AE65" t="inlineStr">
         <is>
@@ -3404,7 +3404,7 @@
         </is>
       </c>
       <c r="C66">
-        <v>144464126.4</v>
+        <v>144465535.3152</v>
       </c>
       <c r="D66">
         <v>90446.18467875999</v>
@@ -3455,13 +3455,13 @@
         <v>2.57e-010</v>
       </c>
       <c r="U66">
-        <v>2.046711549380085e-008</v>
+        <v>2.243262474940733e-008</v>
       </c>
       <c r="V66">
-        <v>8.253157873047003e-009</v>
+        <v>8.940894028323676e-009</v>
       </c>
       <c r="X66">
-        <v>8.117618613037612e-007</v>
+        <v>8.11769199463471e-007</v>
       </c>
       <c r="AE66" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         </is>
       </c>
       <c r="C67">
-        <v>145590000.6</v>
+        <v>145592912.7774</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -3530,13 +3530,13 @@
         <v>1.83e-009</v>
       </c>
       <c r="U67">
-        <v>1.538664505888043e-007</v>
+        <v>1.686443004239358e-007</v>
       </c>
       <c r="V67">
-        <v>6.204509416382661e-008</v>
+        <v>6.721597830904866e-008</v>
       </c>
       <c r="X67">
-        <v>4.245278300399867e-006</v>
+        <v>4.245354665116893e-006</v>
       </c>
       <c r="AE67" t="inlineStr">
         <is>
@@ -3554,7 +3554,7 @@
         </is>
       </c>
       <c r="C68">
-        <v>157540620.6</v>
+        <v>157542721.3932</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -3605,13 +3605,13 @@
         <v>4.05e-009</v>
       </c>
       <c r="U68">
-        <v>4.136679666870817e-007</v>
+        <v>4.533944634439539e-007</v>
       </c>
       <c r="V68">
-        <v>1.668074349375171e-007</v>
+        <v>1.807078706110022e-007</v>
       </c>
       <c r="X68">
-        <v>1.219815144953583e-005</v>
+        <v>1.219829718996223e-005</v>
       </c>
       <c r="AE68" t="inlineStr">
         <is>
@@ -3629,7 +3629,7 @@
         </is>
       </c>
       <c r="C69">
-        <v>165138699</v>
+        <v>165137944.224</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -3680,13 +3680,13 @@
         <v>7.9e-009</v>
       </c>
       <c r="U69">
-        <v>1.478985320293577e-006</v>
+        <v>1.620994446586027e-006</v>
       </c>
       <c r="V69">
-        <v>5.963859120255108e-007</v>
+        <v>6.460741767549851e-007</v>
       </c>
       <c r="X69">
-        <v>3.51576826122033e-005</v>
+        <v>3.515754017968907e-005</v>
       </c>
       <c r="AE69" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         </is>
       </c>
       <c r="C70">
-        <v>172554373.2</v>
+        <v>172553838.567</v>
       </c>
       <c r="D70">
         <v>1.20135371</v>
@@ -3755,13 +3755,13 @@
         <v>1.31e-008</v>
       </c>
       <c r="U70">
-        <v>3.137198835424193e-006</v>
+        <v>3.438430560753937e-006</v>
       </c>
       <c r="V70">
-        <v>1.26504378576147e-006</v>
+        <v>1.370443432762487e-006</v>
       </c>
       <c r="X70">
-        <v>0.0001485813375740899</v>
+        <v>0.0001485809101650555</v>
       </c>
       <c r="AE70" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         </is>
       </c>
       <c r="C71">
-        <v>179674426.8</v>
+        <v>179675709.9192</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -3824,7 +3824,7 @@
         <v>1.83e-008</v>
       </c>
       <c r="X71">
-        <v>0.000313462011625664</v>
+        <v>0.0003134640100009773</v>
       </c>
       <c r="AE71" t="inlineStr">
         <is>
@@ -3842,7 +3842,7 @@
         </is>
       </c>
       <c r="C72">
-        <v>181473309.6</v>
+        <v>181475630.5362</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -3887,7 +3887,7 @@
         <v>4.41e-008</v>
       </c>
       <c r="X72">
-        <v>0.000623240639969221</v>
+        <v>0.0006232474355314905</v>
       </c>
       <c r="AE72" t="inlineStr">
         <is>
@@ -3905,7 +3905,7 @@
         </is>
       </c>
       <c r="C73">
-        <v>179070606</v>
+        <v>179071260.1392</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -3950,7 +3950,7 @@
         <v>2.16e-007</v>
       </c>
       <c r="X73">
-        <v>0.001473378775355022</v>
+        <v>0.001473383078571979</v>
       </c>
       <c r="AE73" t="inlineStr">
         <is>
@@ -3968,7 +3968,7 @@
         </is>
       </c>
       <c r="C74">
-        <v>179095765.2</v>
+        <v>179096469.6576</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -4013,7 +4013,7 @@
         <v>1.053e-006</v>
       </c>
       <c r="X74">
-        <v>0.006096213463127863</v>
+        <v>0.006096231759367143</v>
       </c>
       <c r="AE74" t="inlineStr">
         <is>
@@ -4031,7 +4031,7 @@
         </is>
       </c>
       <c r="C75">
-        <v>175095452.4</v>
+        <v>175096653.7518</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -4082,13 +4082,13 @@
         <v>6.77e-006</v>
       </c>
       <c r="U75">
-        <v>0.001837347773031658</v>
+        <v>0.002013784585738278</v>
       </c>
       <c r="V75">
-        <v>0.0007408919563245006</v>
+        <v>0.0008026271904465092</v>
       </c>
       <c r="X75">
-        <v>0.04436100329470911</v>
+        <v>0.04436122854112096</v>
       </c>
       <c r="AE75" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         </is>
       </c>
       <c r="C76">
-        <v>167780415</v>
+        <v>167780798.6778</v>
       </c>
       <c r="D76">
         <v>2557822.1855568</v>
@@ -4157,13 +4157,13 @@
         <v>6e-005</v>
       </c>
       <c r="U76">
-        <v>0.01701037625984822</v>
+        <v>0.01864378149636523</v>
       </c>
       <c r="V76">
-        <v>0.00685926264475225</v>
+        <v>0.007430787814993754</v>
       </c>
       <c r="X76">
-        <v>0.3384821122498967</v>
+        <v>0.338482667629745</v>
       </c>
       <c r="AE76" t="inlineStr">
         <is>
@@ -4181,7 +4181,7 @@
         </is>
       </c>
       <c r="C77">
-        <v>158370874.2</v>
+        <v>158370534.5508</v>
       </c>
       <c r="D77">
         <v>828555.61461192</v>
@@ -4232,13 +4232,13 @@
         <v>9.42e-005</v>
       </c>
       <c r="U77">
-        <v>0.02765251819951178</v>
+        <v>0.03030771975620718</v>
       </c>
       <c r="V77">
-        <v>0.01115059903565798</v>
+        <v>0.01207964353736803</v>
       </c>
       <c r="X77">
-        <v>0.4636543608015857</v>
+        <v>0.4636536704318414</v>
       </c>
       <c r="AE77" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         </is>
       </c>
       <c r="C78">
-        <v>156345558.6</v>
+        <v>156346426.5924</v>
       </c>
       <c r="D78">
         <v>523314.55696856</v>
@@ -4307,13 +4307,13 @@
         <v>0.000214</v>
       </c>
       <c r="U78">
-        <v>0.05116203582666973</v>
+        <v>0.05607496850255284</v>
       </c>
       <c r="V78">
-        <v>0.02063057488056313</v>
+        <v>0.02234960717363932</v>
       </c>
       <c r="X78">
-        <v>0.9038279987678225</v>
+        <v>0.9038315753660692</v>
       </c>
       <c r="AE78" t="inlineStr">
         <is>
@@ -4331,7 +4331,7 @@
         </is>
       </c>
       <c r="C79">
-        <v>164308445.4</v>
+        <v>164306432.664</v>
       </c>
       <c r="D79">
         <v>1264149.1603008</v>
@@ -4382,13 +4382,13 @@
         <v>0.000871</v>
       </c>
       <c r="U79">
-        <v>0.3059180134699893</v>
+        <v>0.3352899255624758</v>
       </c>
       <c r="V79">
-        <v>0.1233583531661537</v>
+        <v>0.1336353514894788</v>
       </c>
       <c r="X79">
-        <v>3.396079155070159</v>
+        <v>3.396052078096961</v>
       </c>
       <c r="AE79" t="inlineStr">
         <is>
@@ -4406,7 +4406,7 @@
         </is>
       </c>
       <c r="C80">
-        <v>168019427.4</v>
+        <v>168021213.7032</v>
       </c>
       <c r="D80">
         <v>1987128.1000496</v>
@@ -4457,13 +4457,13 @@
         <v>0.0394</v>
       </c>
       <c r="U80">
-        <v>2.015049048037643</v>
+        <v>2.208559465442972</v>
       </c>
       <c r="V80">
-        <v>0.8125482030149706</v>
+        <v>0.8802579437922662</v>
       </c>
       <c r="X80">
-        <v>126.4732029371874</v>
+        <v>126.4741339301008</v>
       </c>
       <c r="AE80" t="inlineStr">
         <is>
@@ -4481,7 +4481,7 @@
         </is>
       </c>
       <c r="C81">
-        <v>176139559.2</v>
+        <v>176139785.6328</v>
       </c>
       <c r="D81">
         <v>6529986.54580544</v>
@@ -4532,13 +4532,13 @@
         <v>0.449</v>
       </c>
       <c r="U81">
-        <v>142.5299537484962</v>
+        <v>156.2161757443584</v>
       </c>
       <c r="V81">
-        <v>57.47376616312716</v>
+        <v>62.26254343585885</v>
       </c>
       <c r="X81">
-        <v>3895.19460622893</v>
+        <v>3895.198372899919</v>
       </c>
       <c r="AE81" t="inlineStr">
         <is>
@@ -4556,7 +4556,7 @@
         </is>
       </c>
       <c r="C82">
-        <v>180020365.8</v>
+        <v>180017346.696</v>
       </c>
       <c r="D82">
         <v>5543827.82874338</v>
@@ -4607,13 +4607,13 @@
         <v>0.95</v>
       </c>
       <c r="U82">
-        <v>340.1496235934603</v>
+        <v>372.805427284581</v>
       </c>
       <c r="V82">
-        <v>137.1619046574799</v>
+        <v>148.5877758742177</v>
       </c>
       <c r="X82">
-        <v>10690.36373285621</v>
+        <v>10690.22622714689</v>
       </c>
       <c r="AE82" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         </is>
       </c>
       <c r="C83">
-        <v>202820890.8</v>
+        <v>202821544.9392</v>
       </c>
       <c r="D83">
         <v>16964341.7535642</v>
@@ -4682,13 +4682,13 @@
         <v>0.99</v>
       </c>
       <c r="U83">
-        <v>347.453475038947</v>
+        <v>380.8178524214677</v>
       </c>
       <c r="V83">
-        <v>140.1071090796244</v>
+        <v>151.7812605804902</v>
       </c>
       <c r="X83">
-        <v>9562.673392779543</v>
+        <v>9562.699261143765</v>
       </c>
       <c r="AE83" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         </is>
       </c>
       <c r="C84">
-        <v>216709977.407682</v>
+        <v>216666596.091</v>
       </c>
       <c r="D84">
         <v>28450838.2634701</v>
@@ -4756,14 +4756,26 @@
       <c r="Q84">
         <v>0.99</v>
       </c>
+      <c r="S84">
+        <v>3352.410453463208</v>
+      </c>
+      <c r="T84">
+        <v>3026.584653430287</v>
+      </c>
       <c r="U84">
-        <v>499.9502449920075</v>
+        <v>547.8718823197912</v>
       </c>
       <c r="V84">
-        <v>201.5998933429243</v>
+        <v>218.3634102402079</v>
       </c>
       <c r="X84">
-        <v>8118.352041598691</v>
+        <v>8116.969581128286</v>
+      </c>
+      <c r="Y84">
+        <v>5090.384927697999</v>
+      </c>
+      <c r="Z84">
+        <v>4872.021517457792</v>
       </c>
       <c r="AE84" t="inlineStr">
         <is>
@@ -4781,7 +4793,7 @@
         </is>
       </c>
       <c r="C85">
-        <v>243705394.8377136</v>
+        <v>243619496.0958</v>
       </c>
       <c r="D85">
         <v>39566652.3671298</v>
@@ -4831,14 +4843,26 @@
       <c r="Q85">
         <v>1</v>
       </c>
+      <c r="S85">
+        <v>3582.384336447711</v>
+      </c>
+      <c r="T85">
+        <v>3234.207029804764</v>
+      </c>
       <c r="U85">
-        <v>537.0635931800226</v>
+        <v>588.475639545377</v>
       </c>
       <c r="V85">
-        <v>216.5654766409628</v>
+        <v>234.5467099905117</v>
       </c>
       <c r="X85">
-        <v>7981.857284640711</v>
+        <v>7979.465935953881</v>
+      </c>
+      <c r="Y85">
+        <v>4745.258906149116</v>
+      </c>
+      <c r="Z85">
+        <v>4510.712196158605</v>
       </c>
       <c r="AE85" t="inlineStr">
         <is>
@@ -4856,7 +4880,7 @@
         </is>
       </c>
       <c r="C86">
-        <v>262532039.2366254</v>
+        <v>262532037.834</v>
       </c>
       <c r="D86">
         <v>72848661.85889886</v>
@@ -4906,14 +4930,26 @@
       <c r="Q86">
         <v>0.99</v>
       </c>
+      <c r="S86">
+        <v>4202.446712012389</v>
+      </c>
+      <c r="T86">
+        <v>3794.004613097373</v>
+      </c>
       <c r="U86">
-        <v>631.1042106528228</v>
+        <v>691.7041610529842</v>
       </c>
       <c r="V86">
-        <v>254.4864070581933</v>
+        <v>275.6901464724344</v>
       </c>
       <c r="X86">
-        <v>9841.893191238725</v>
+        <v>9841.893146505825</v>
+      </c>
+      <c r="Y86">
+        <v>6047.888533408452</v>
+      </c>
+      <c r="Z86">
+        <v>5772.198386936017</v>
       </c>
       <c r="AE86" t="inlineStr">
         <is>
@@ -4931,7 +4967,7 @@
         </is>
       </c>
       <c r="C87">
-        <v>286623718.1403618</v>
+        <v>286623720.3984</v>
       </c>
       <c r="D87">
         <v>118623835.5705348</v>
@@ -4981,14 +5017,26 @@
       <c r="Q87">
         <v>1</v>
       </c>
+      <c r="S87">
+        <v>5551.678415304941</v>
+      </c>
+      <c r="T87">
+        <v>5012.102463522676</v>
+      </c>
       <c r="U87">
-        <v>843.3230529218535</v>
+        <v>924.3007113607432</v>
       </c>
       <c r="V87">
-        <v>340.0615145721009</v>
+        <v>368.3953528799135</v>
       </c>
       <c r="X87">
-        <v>12039.80040235467</v>
+        <v>12039.80048475277</v>
+      </c>
+      <c r="Y87">
+        <v>7027.698021230096</v>
+      </c>
+      <c r="Z87">
+        <v>6659.302668350182</v>
       </c>
       <c r="AE87" t="inlineStr">
         <is>
@@ -5006,7 +5054,7 @@
         </is>
       </c>
       <c r="C88">
-        <v>304444926.5869968</v>
+        <v>304444925.2284</v>
       </c>
       <c r="D88">
         <v>122350382.8253784</v>
@@ -5056,17 +5104,32 @@
       <c r="Q88">
         <v>1</v>
       </c>
+      <c r="S88">
+        <v>5475.347220301035</v>
+      </c>
+      <c r="T88">
+        <v>4943.190011845358</v>
+      </c>
       <c r="U88">
-        <v>846.1213900968774</v>
+        <v>927.3677417389605</v>
       </c>
       <c r="V88">
-        <v>341.189915811371</v>
+        <v>369.6177686203638</v>
       </c>
       <c r="W88">
         <v>140.3441734589189</v>
       </c>
       <c r="X88">
-        <v>11331.0368125968</v>
+        <v>11331.03676902936</v>
+      </c>
+      <c r="Y88">
+        <v>6387.846757184001</v>
+      </c>
+      <c r="Z88">
+        <v>6018.228988563637</v>
+      </c>
+      <c r="AA88">
+        <v>5601.786156676581</v>
       </c>
       <c r="AE88" t="inlineStr">
         <is>
@@ -5084,7 +5147,7 @@
         </is>
       </c>
       <c r="C89">
-        <v>309128920.3372326</v>
+        <v>309128920.419</v>
       </c>
       <c r="D89">
         <v>120668555.2790124</v>
@@ -5134,17 +5197,32 @@
       <c r="Q89">
         <v>1</v>
       </c>
+      <c r="S89">
+        <v>3651.962569261199</v>
+      </c>
+      <c r="T89">
+        <v>3297.022849815277</v>
+      </c>
       <c r="U89">
-        <v>631.3008913920736</v>
+        <v>691.9197304477913</v>
       </c>
       <c r="V89">
-        <v>254.5657165823965</v>
+        <v>275.7760652240852</v>
       </c>
       <c r="W89">
         <v>1152.292740357098</v>
       </c>
       <c r="X89">
-        <v>7633.973152312845</v>
+        <v>7633.973153980052</v>
+      </c>
+      <c r="Y89">
+        <v>4336.950304164775</v>
+      </c>
+      <c r="Z89">
+        <v>4061.17423894069</v>
+      </c>
+      <c r="AA89">
+        <v>2722.86765102012</v>
       </c>
       <c r="AE89" t="inlineStr">
         <is>
@@ -5162,7 +5240,7 @@
         </is>
       </c>
       <c r="C90">
-        <v>298550679.4023428</v>
+        <v>280944389.517</v>
       </c>
       <c r="D90">
         <v>89549617.0844461</v>
@@ -5198,7 +5276,7 @@
         <v>0.4709401388975893</v>
       </c>
       <c r="N90">
-        <v>1.738458045906026</v>
+        <v>1.162095453656468</v>
       </c>
       <c r="O90">
         <v>1.202856468366384</v>
@@ -5209,17 +5287,32 @@
       <c r="Q90">
         <v>1</v>
       </c>
+      <c r="S90">
+        <v>4999.367294208941</v>
+      </c>
+      <c r="T90">
+        <v>4513.471288661265</v>
+      </c>
       <c r="U90">
-        <v>790.0784253642592</v>
+        <v>827.4507947630284</v>
       </c>
       <c r="V90">
-        <v>318.5911555829452</v>
+        <v>329.7942150003601</v>
       </c>
       <c r="W90">
         <v>1131.575850671096</v>
       </c>
       <c r="X90">
-        <v>10040.1857609733</v>
+        <v>9520.795104819681</v>
+      </c>
+      <c r="Y90">
+        <v>5007.323816158416</v>
+      </c>
+      <c r="Z90">
+        <v>4677.529601158056</v>
+      </c>
+      <c r="AA90">
+        <v>3313.964497500441</v>
       </c>
       <c r="AE90" t="inlineStr">
         <is>
@@ -5237,7 +5330,7 @@
         </is>
       </c>
       <c r="C91">
-        <v>283677273.7401372</v>
+        <v>272277680.3868</v>
       </c>
       <c r="D91">
         <v>5608444.835399999</v>
@@ -5273,7 +5366,7 @@
         <v>1.077351123374992</v>
       </c>
       <c r="N91">
-        <v>2.459631318753218</v>
+        <v>1.252036969292027</v>
       </c>
       <c r="O91">
         <v>1.26895656279509</v>
@@ -5284,17 +5377,32 @@
       <c r="Q91">
         <v>1</v>
       </c>
+      <c r="S91">
+        <v>7962.5774110974</v>
+      </c>
+      <c r="T91">
+        <v>7188.682569964592</v>
+      </c>
       <c r="U91">
-        <v>1174.18599691036</v>
+        <v>1245.6733294895</v>
       </c>
       <c r="V91">
-        <v>473.4786593527283</v>
+        <v>496.48373105198</v>
       </c>
       <c r="W91">
         <v>2193.249209578293</v>
       </c>
       <c r="X91">
-        <v>16984.72834368756</v>
+        <v>16423.8617765052</v>
+      </c>
+      <c r="Y91">
+        <v>9235.179206540604</v>
+      </c>
+      <c r="Z91">
+        <v>8738.695475488625</v>
+      </c>
+      <c r="AA91">
+        <v>6145.252859504971</v>
       </c>
       <c r="AE91" t="inlineStr">
         <is>
@@ -5312,7 +5420,7 @@
         </is>
       </c>
       <c r="C92">
-        <v>296445681.717603</v>
+        <v>280631962.5714</v>
       </c>
       <c r="D92">
         <v>104949187.5168</v>
@@ -5351,7 +5459,7 @@
         <v>0.5872543377789462</v>
       </c>
       <c r="N92">
-        <v>2.626107390538015</v>
+        <v>1.480763595628035</v>
       </c>
       <c r="O92">
         <v>1.340651558073655</v>
@@ -5362,17 +5470,32 @@
       <c r="Q92">
         <v>1</v>
       </c>
+      <c r="S92">
+        <v>6606.531135576198</v>
+      </c>
+      <c r="T92">
+        <v>5964.432465806273</v>
+      </c>
       <c r="U92">
-        <v>1098.656186806657</v>
+        <v>1125.819995871351</v>
       </c>
       <c r="V92">
-        <v>443.0220252903503</v>
+        <v>448.7142004334328</v>
       </c>
       <c r="W92">
         <v>2450.768900537212</v>
       </c>
       <c r="X92">
-        <v>14232.00911841002</v>
+        <v>13568.28825101198</v>
+      </c>
+      <c r="Y92">
+        <v>7603.855785205708</v>
+      </c>
+      <c r="Z92">
+        <v>7155.141584772276</v>
+      </c>
+      <c r="AA92">
+        <v>4373.759849802299</v>
       </c>
       <c r="AE92" t="inlineStr">
         <is>
@@ -5390,7 +5513,7 @@
         </is>
       </c>
       <c r="C93">
-        <v>292462821.4080672</v>
+        <v>276503268.6636</v>
       </c>
       <c r="D93">
         <v>97245641.75039999</v>
@@ -5429,7 +5552,7 @@
         <v>0.5139882014849745</v>
       </c>
       <c r="N93">
-        <v>2.504475959583499</v>
+        <v>1.304790888533957</v>
       </c>
       <c r="O93">
         <v>0.4929689708473924</v>
@@ -5440,17 +5563,32 @@
       <c r="Q93">
         <v>3.14</v>
       </c>
+      <c r="S93">
+        <v>10522.4814839843</v>
+      </c>
+      <c r="T93">
+        <v>9499.785726575188</v>
+      </c>
       <c r="U93">
-        <v>2758.978193647949</v>
+        <v>2797.094093539958</v>
       </c>
       <c r="V93">
-        <v>1112.530127040487</v>
+        <v>1114.828164646741</v>
       </c>
       <c r="W93">
         <v>3927.818961227893</v>
       </c>
       <c r="X93">
-        <v>19084.40034787444</v>
+        <v>18151.11485205031</v>
+      </c>
+      <c r="Y93">
+        <v>8651.32912547512</v>
+      </c>
+      <c r="Z93">
+        <v>7536.500960828379</v>
+      </c>
+      <c r="AA93">
+        <v>3166.401336164298</v>
       </c>
       <c r="AE93" t="inlineStr">
         <is>
@@ -5468,7 +5606,7 @@
         </is>
       </c>
       <c r="C94">
-        <v>285926125.4073411</v>
+        <v>270191278.2492</v>
       </c>
       <c r="D94">
         <v>83878726.09908</v>
@@ -5507,7 +5645,7 @@
         <v>0.5281088208812833</v>
       </c>
       <c r="N94">
-        <v>3.070518024153881</v>
+        <v>1.39207231120329</v>
       </c>
       <c r="O94">
         <v>0.5422560403755233</v>
@@ -5518,17 +5656,32 @@
       <c r="Q94">
         <v>2.93</v>
       </c>
+      <c r="S94">
+        <v>12705.23362875543</v>
+      </c>
+      <c r="T94">
+        <v>11470.39291662906</v>
+      </c>
       <c r="U94">
-        <v>3086.539407207176</v>
+        <v>3095.000823401328</v>
       </c>
       <c r="V94">
-        <v>1244.615882329745</v>
+        <v>1233.563824506844</v>
       </c>
       <c r="W94">
         <v>3710.739805031019</v>
       </c>
       <c r="X94">
-        <v>23788.33409636621</v>
+        <v>22609.30696040076</v>
+      </c>
+      <c r="Y94">
+        <v>11138.9140437717</v>
+      </c>
+      <c r="Z94">
+        <v>9905.350219264852</v>
+      </c>
+      <c r="AA94">
+        <v>5643.698838620672</v>
       </c>
       <c r="AE94" t="inlineStr">
         <is>
@@ -5546,7 +5699,7 @@
         </is>
       </c>
       <c r="C95">
-        <v>268899195.5961115</v>
+        <v>254315156.3304</v>
       </c>
       <c r="D95">
         <v>64388883.8736</v>
@@ -5585,7 +5738,7 @@
         <v>0.9666422960957281</v>
       </c>
       <c r="N95">
-        <v>3.415359409501558</v>
+        <v>1.552128439011633</v>
       </c>
       <c r="O95">
         <v>0.7725186682007303</v>
@@ -5605,7 +5758,7 @@
         <v>13346.36239762477</v>
       </c>
       <c r="T95">
-        <v>11909.56491673926</v>
+        <v>12049.20941886494</v>
       </c>
       <c r="U95">
         <v>1713.839257256747</v>
@@ -5617,16 +5770,16 @@
         <v>3909.674833067294</v>
       </c>
       <c r="X95">
-        <v>29632.56058355719</v>
+        <v>28274.21386897995</v>
       </c>
       <c r="Y95">
-        <v>17722.99566681793</v>
+        <v>16225.00445011501</v>
       </c>
       <c r="Z95">
-        <v>16970.47887753495</v>
+        <v>15472.48766083203</v>
       </c>
       <c r="AA95">
-        <v>12338.75976999554</v>
+        <v>10873.86682251721</v>
       </c>
       <c r="AE95" t="inlineStr">
         <is>
@@ -5644,7 +5797,7 @@
         </is>
       </c>
       <c r="C96">
-        <v>257469922.2817313</v>
+        <v>242613090.357</v>
       </c>
       <c r="D96">
         <v>54636926.3616</v>
@@ -5683,7 +5836,7 @@
         <v>1.460267304091145</v>
       </c>
       <c r="N96">
-        <v>4.341844173370141</v>
+        <v>1.80499070801215</v>
       </c>
       <c r="O96">
         <v>1.043703097186865</v>
@@ -5703,7 +5856,7 @@
         <v>14765.02265958411</v>
       </c>
       <c r="T96">
-        <v>13175.49985700509</v>
+        <v>13329.98796220887</v>
       </c>
       <c r="U96">
         <v>2402.183427708314</v>
@@ -5715,16 +5868,16 @@
         <v>4561.970945620762</v>
       </c>
       <c r="X96">
-        <v>43749.2350569521</v>
+        <v>41668.80358149848</v>
       </c>
       <c r="Y96">
-        <v>30573.73519994702</v>
+        <v>28338.81561928961</v>
       </c>
       <c r="Z96">
-        <v>29594.09142197275</v>
+        <v>27359.17184131534</v>
       </c>
       <c r="AA96">
-        <v>23966.10106853424</v>
+        <v>21781.87449603073</v>
       </c>
       <c r="AE96" t="inlineStr">
         <is>
@@ -5742,7 +5895,7 @@
         </is>
       </c>
       <c r="C97">
-        <v>254181417.6250523</v>
+        <v>241190771.5932</v>
       </c>
       <c r="D97">
         <v>31949152.3164</v>
@@ -5781,7 +5934,7 @@
         <v>2.40590503571002</v>
       </c>
       <c r="N97">
-        <v>5.019218946607819</v>
+        <v>2.388092855380338</v>
       </c>
       <c r="O97">
         <v>1.288920009735108</v>
@@ -5801,7 +5954,7 @@
         <v>20655.76321874334</v>
       </c>
       <c r="T97">
-        <v>18432.07502009682</v>
+        <v>18648.19861128753</v>
       </c>
       <c r="U97">
         <v>3281.07803568129</v>
@@ -5813,16 +5966,16 @@
         <v>5060.15432154359</v>
       </c>
       <c r="X97">
-        <v>59731.65082586783</v>
+        <v>57372.53664649131</v>
       </c>
       <c r="Y97">
-        <v>41299.57580577101</v>
+        <v>38724.33803520378</v>
       </c>
       <c r="Z97">
-        <v>40015.31872159757</v>
+        <v>37440.08095103034</v>
       </c>
       <c r="AA97">
-        <v>33499.70811702465</v>
+        <v>30981.95390010584</v>
       </c>
       <c r="AE97" t="inlineStr">
         <is>
@@ -5840,7 +5993,7 @@
         </is>
       </c>
       <c r="C98">
-        <v>247773030.6396965</v>
+        <v>238412145.5166</v>
       </c>
       <c r="D98">
         <v>20763719.82234</v>
@@ -5879,7 +6032,7 @@
         <v>3.030781768098272</v>
       </c>
       <c r="N98">
-        <v>7.568725879488357</v>
+        <v>4.497059288764902</v>
       </c>
       <c r="O98">
         <v>1.499304840234349</v>
@@ -5899,7 +6052,7 @@
         <v>24770.86379173943</v>
       </c>
       <c r="T98">
-        <v>22104.16603283074</v>
+        <v>22363.34638762436</v>
       </c>
       <c r="U98">
         <v>4595.498605305907</v>
@@ -5911,16 +6064,16 @@
         <v>5284.848568071481</v>
       </c>
       <c r="X98">
-        <v>72134.23853070798</v>
+        <v>70116.21858862373</v>
       </c>
       <c r="Y98">
-        <v>50030.07249787724</v>
+        <v>47752.87220099937</v>
       </c>
       <c r="Z98">
-        <v>48260.20107021421</v>
+        <v>45983.00077333635</v>
       </c>
       <c r="AA98">
-        <v>41217.6875248743</v>
+        <v>38989.65948028438</v>
       </c>
       <c r="AE98" t="inlineStr">
         <is>
@@ -5938,7 +6091,7 @@
         </is>
       </c>
       <c r="C99">
-        <v>242036137.7849751</v>
+        <v>236452111.7508</v>
       </c>
       <c r="D99">
         <v>20686397.4114204</v>
@@ -5977,7 +6130,7 @@
         <v>8.991015162190822</v>
       </c>
       <c r="N99">
-        <v>13.67904582641926</v>
+        <v>12.94147669805176</v>
       </c>
       <c r="O99">
         <v>1.743880514041419</v>
@@ -5994,10 +6147,10 @@
         </is>
       </c>
       <c r="S99">
-        <v>29549.65160836547</v>
+        <v>29549.65160836548</v>
       </c>
       <c r="T99">
-        <v>26368.49529572856</v>
+        <v>26677.67664896171</v>
       </c>
       <c r="U99">
         <v>6940.769281061585</v>
@@ -6009,16 +6162,16 @@
         <v>5925.929530057659</v>
       </c>
       <c r="X99">
-        <v>142261.1549017193</v>
+        <v>140411.0138771669</v>
       </c>
       <c r="Y99">
-        <v>115892.6596059908</v>
+        <v>113733.3372282052</v>
       </c>
       <c r="Z99">
-        <v>113424.7310265013</v>
+        <v>111265.4086487158</v>
       </c>
       <c r="AA99">
-        <v>104032.3831257823</v>
+        <v>101918.1423645509</v>
       </c>
       <c r="AE99" t="inlineStr">
         <is>
@@ -6036,7 +6189,7 @@
         </is>
       </c>
       <c r="C100">
-        <v>220344493.9499344</v>
+        <v>227941980.9018</v>
       </c>
       <c r="D100">
         <v>38281780.30050659</v>
@@ -6075,7 +6228,7 @@
         <v>6.05824830177867</v>
       </c>
       <c r="N100">
-        <v>10.08763090488371</v>
+        <v>11.32325264022676</v>
       </c>
       <c r="O100">
         <v>1.799823733081524</v>
@@ -6095,7 +6248,7 @@
         <v>28873.78247737324</v>
       </c>
       <c r="T100">
-        <v>25765.38659457381</v>
+        <v>26067.49625250244</v>
       </c>
       <c r="U100">
         <v>8284.085055596654</v>
@@ -6107,16 +6260,16 @@
         <v>6366.052985794636</v>
       </c>
       <c r="X100">
-        <v>96590.64057663317</v>
+        <v>98405.53590732526</v>
       </c>
       <c r="Y100">
-        <v>70825.25398205937</v>
+        <v>72338.03965482282</v>
       </c>
       <c r="Z100">
-        <v>67840.44620249879</v>
+        <v>69353.23187526224</v>
       </c>
       <c r="AA100">
-        <v>59120.80926639742</v>
+        <v>60589.37213976433</v>
       </c>
       <c r="AE100" t="inlineStr">
         <is>
@@ -6134,7 +6287,7 @@
         </is>
       </c>
       <c r="C101">
-        <v>215106366.4088183</v>
+        <v>222743303.9568</v>
       </c>
       <c r="D101">
         <v>33429069.6217896</v>
@@ -6173,7 +6326,7 @@
         <v>7.699329891418924</v>
       </c>
       <c r="N101">
-        <v>12.96545076307643</v>
+        <v>12.57553709973752</v>
       </c>
       <c r="O101">
         <v>2.036006709535843</v>
@@ -6193,7 +6346,7 @@
         <v>34583.54418547882</v>
       </c>
       <c r="T101">
-        <v>30860.46611481053</v>
+        <v>31222.31765649969</v>
       </c>
       <c r="U101">
         <v>10797.5146733119</v>
@@ -6205,16 +6358,16 @@
         <v>8279.27429162431</v>
       </c>
       <c r="X101">
-        <v>148549.3351816518</v>
+        <v>151494.3618920414</v>
       </c>
       <c r="Y101">
-        <v>117688.8690668412</v>
+        <v>120272.0442355417</v>
       </c>
       <c r="Z101">
-        <v>113971.3152024887</v>
+        <v>116554.4903711892</v>
       </c>
       <c r="AA101">
-        <v>102072.4010676553</v>
+        <v>104583.8159958457</v>
       </c>
       <c r="AE101" t="inlineStr">
         <is>
@@ -6232,7 +6385,7 @@
         </is>
       </c>
       <c r="C102">
-        <v>202002442.1947765</v>
+        <v>209615629.6542</v>
       </c>
       <c r="D102">
         <v>21725042.0421738</v>
@@ -6271,7 +6424,7 @@
         <v>9.813452816168102</v>
       </c>
       <c r="N102">
-        <v>16.49945538996105</v>
+        <v>16.17958801155788</v>
       </c>
       <c r="O102">
         <v>2.114508017249896</v>
@@ -6291,7 +6444,7 @@
         <v>45478.13318051624</v>
       </c>
       <c r="T102">
-        <v>40582.20234615119</v>
+        <v>41058.04520702906</v>
       </c>
       <c r="U102">
         <v>15347.15504543464</v>
@@ -6303,16 +6456,16 @@
         <v>10661.1264634248</v>
       </c>
       <c r="X102">
-        <v>205677.8311720429</v>
+        <v>210082.9529907069</v>
       </c>
       <c r="Y102">
-        <v>165095.6288258917</v>
+        <v>169024.9077836779</v>
       </c>
       <c r="Z102">
-        <v>160007.864498827</v>
+        <v>163937.1434566131</v>
       </c>
       <c r="AA102">
-        <v>144335.071899941</v>
+        <v>148157.0130872179</v>
       </c>
       <c r="AE102" t="inlineStr">
         <is>
@@ -6330,7 +6483,7 @@
         </is>
       </c>
       <c r="C103">
-        <v>201076103.5525829</v>
+        <v>208440946.6062</v>
       </c>
       <c r="D103">
         <v>24058816.80833532</v>
@@ -6369,7 +6522,7 @@
         <v>11.37692321386652</v>
       </c>
       <c r="N103">
-        <v>15.97332383456711</v>
+        <v>18.50937721603621</v>
       </c>
       <c r="O103">
         <v>1.892351873803061</v>
@@ -6389,7 +6542,7 @@
         <v>56426.68120879387</v>
       </c>
       <c r="T103">
-        <v>50352.08867188259</v>
+        <v>50942.48743142842</v>
       </c>
       <c r="U103">
         <v>19042.74153551916</v>
@@ -6401,16 +6554,16 @@
         <v>15461.46476406837</v>
       </c>
       <c r="X103">
-        <v>267217.2743558198</v>
+        <v>272553.2524234431</v>
       </c>
       <c r="Y103">
-        <v>216865.1856839372</v>
+        <v>221610.7649920147</v>
       </c>
       <c r="Z103">
-        <v>210503.5285745196</v>
+        <v>215249.1078825971</v>
       </c>
       <c r="AA103">
-        <v>188530.8916677467</v>
+        <v>193146.4514183993</v>
       </c>
       <c r="AE103" t="inlineStr">
         <is>
@@ -6428,7 +6581,7 @@
         </is>
       </c>
       <c r="C104">
-        <v>197077899.6772364</v>
+        <v>204173770.1718</v>
       </c>
       <c r="D104">
         <v>15931837.93771614</v>
@@ -6467,7 +6620,7 @@
         <v>10.79195070009504</v>
       </c>
       <c r="N104">
-        <v>15.97322981147881</v>
+        <v>20.81605585661363</v>
       </c>
       <c r="O104">
         <v>1.871133196076307</v>
@@ -6484,10 +6637,10 @@
         </is>
       </c>
       <c r="S104">
-        <v>67716.62572081837</v>
+        <v>73294.07471109502</v>
       </c>
       <c r="T104">
-        <v>60426.61857497208</v>
+        <v>66170.51366094234</v>
       </c>
       <c r="U104">
         <v>24838.8156354</v>
@@ -6499,16 +6652,16 @@
         <v>25413.00179900282</v>
       </c>
       <c r="X104">
-        <v>285895.17277545</v>
+        <v>291468.237568909</v>
       </c>
       <c r="Y104">
-        <v>225468.5542004779</v>
+        <v>225297.7239079666</v>
       </c>
       <c r="Z104">
-        <v>217243.3425200779</v>
+        <v>217072.5122275666</v>
       </c>
       <c r="AA104">
-        <v>184864.0519989228</v>
+        <v>184557.4251553834</v>
       </c>
       <c r="AE104" t="inlineStr">
         <is>
@@ -6526,7 +6679,7 @@
         </is>
       </c>
       <c r="C105">
-        <v>194226984.4178757</v>
+        <v>201146495.7216</v>
       </c>
       <c r="D105">
         <v>16825688.38858842</v>
@@ -6565,7 +6718,7 @@
         <v>10.52889893168332</v>
       </c>
       <c r="N105">
-        <v>14.00824490307292</v>
+        <v>20.6154716078505</v>
       </c>
       <c r="O105">
         <v>2.287471943738364</v>
@@ -6582,10 +6735,10 @@
         </is>
       </c>
       <c r="S105">
-        <v>84873.94397038275</v>
+        <v>91656.16540909471</v>
       </c>
       <c r="T105">
-        <v>75736.87236567595</v>
+        <v>82747.96522390646</v>
       </c>
       <c r="U105">
         <v>36406.33695203321</v>
@@ -6597,16 +6750,16 @@
         <v>36203.76603294804</v>
       </c>
       <c r="X105">
-        <v>386461.4308741315</v>
+        <v>393892.4788326742</v>
       </c>
       <c r="Y105">
-        <v>310724.5585084555</v>
+        <v>311144.5136087678</v>
       </c>
       <c r="Z105">
-        <v>299133.1357131034</v>
+        <v>299553.0908134157</v>
       </c>
       <c r="AA105">
-        <v>253512.6247896782</v>
+        <v>253751.5106362328</v>
       </c>
       <c r="AE105" t="inlineStr">
         <is>
@@ -6624,7 +6777,7 @@
         </is>
       </c>
       <c r="C106">
-        <v>194339835.4062838</v>
+        <v>201105366.7194</v>
       </c>
       <c r="D106">
         <v>14726080.94671626</v>
@@ -6663,7 +6816,7 @@
         <v>6.480576847737366</v>
       </c>
       <c r="N106">
-        <v>7.196422357854731</v>
+        <v>19.87283664056364</v>
       </c>
       <c r="O106">
         <v>2.15010809733667</v>
@@ -6680,10 +6833,10 @@
         </is>
       </c>
       <c r="S106">
-        <v>88043.63651478694</v>
+        <v>99709.05546601515</v>
       </c>
       <c r="T106">
-        <v>78565.33288540562</v>
+        <v>90018.18281819252</v>
       </c>
       <c r="U106">
         <v>49158.39415409092</v>
@@ -6695,16 +6848,16 @@
         <v>54020.71580722831</v>
       </c>
       <c r="X106">
-        <v>287969.2724474781</v>
+        <v>292665.0886130772</v>
       </c>
       <c r="Y106">
-        <v>209403.9395620725</v>
+        <v>202646.9057948847</v>
       </c>
       <c r="Z106">
-        <v>193648.404043701</v>
+        <v>186891.3702765133</v>
       </c>
       <c r="AA106">
-        <v>132610.8607905861</v>
+        <v>125739.406024687</v>
       </c>
       <c r="AE106" t="inlineStr">
         <is>
@@ -6722,7 +6875,7 @@
         </is>
       </c>
       <c r="C107">
-        <v>186858772.4536606</v>
+        <v>178180149.422684</v>
       </c>
       <c r="D107">
         <v>18683541.3286236</v>
@@ -6761,7 +6914,7 @@
         <v>3.680975540602125</v>
       </c>
       <c r="N107">
-        <v>6.705561883807536</v>
+        <v>14.55110287725587</v>
       </c>
       <c r="O107">
         <v>3.371700184168235</v>
@@ -6778,10 +6931,10 @@
         </is>
       </c>
       <c r="S107">
-        <v>136120.4581962787</v>
+        <v>141003.9136602297</v>
       </c>
       <c r="T107">
-        <v>121466.4629272606</v>
+        <v>127299.5318090587</v>
       </c>
       <c r="U107">
         <v>55785.67350555433</v>
@@ -6793,16 +6946,16 @@
         <v>88690.97627182691</v>
       </c>
       <c r="X107">
-        <v>289592.4842444696</v>
+        <v>282173.9674094135</v>
       </c>
       <c r="Y107">
-        <v>168126.0213172089</v>
+        <v>154874.4356003549</v>
       </c>
       <c r="Z107">
-        <v>148661.7544896465</v>
+        <v>135410.1687727924</v>
       </c>
       <c r="AA107">
-        <v>52914.39864544806</v>
+        <v>39843.57684167949</v>
       </c>
       <c r="AE107" t="inlineStr">
         <is>
@@ -6820,7 +6973,7 @@
         </is>
       </c>
       <c r="C108">
-        <v>175065754.5388151</v>
+        <v>166357510.9765998</v>
       </c>
       <c r="D108">
         <v>10845928.399746</v>
@@ -6859,7 +7012,7 @@
         <v>5.087057457117536</v>
       </c>
       <c r="N108">
-        <v>9.095799411997563</v>
+        <v>7.294269175395665</v>
       </c>
       <c r="O108">
         <v>3.948895811758799</v>
@@ -6876,10 +7029,10 @@
         </is>
       </c>
       <c r="S108">
-        <v>144831.9413150367</v>
+        <v>158420.9363439421</v>
       </c>
       <c r="T108">
-        <v>129240.1147008997</v>
+        <v>143023.7679354897</v>
       </c>
       <c r="U108">
         <v>64891.72700178792</v>
@@ -6891,16 +7044,16 @@
         <v>34428.32684545482</v>
       </c>
       <c r="X108">
-        <v>364801.4844202921</v>
+        <v>356426.4323352305</v>
       </c>
       <c r="Y108">
-        <v>235561.3697193924</v>
+        <v>213402.6643997409</v>
       </c>
       <c r="Z108">
-        <v>211022.9548388101</v>
+        <v>188864.2495191585</v>
       </c>
       <c r="AA108">
-        <v>167705.6620060298</v>
+        <v>145751.0280959135</v>
       </c>
       <c r="AE108" t="inlineStr">
         <is>
@@ -6918,7 +7071,7 @@
         </is>
       </c>
       <c r="C109">
-        <v>178663117.0198723</v>
+        <v>169528964.5768283</v>
       </c>
       <c r="D109">
         <v>22591805.2422843</v>
@@ -6957,7 +7110,7 @@
         <v>6.446001316195582</v>
       </c>
       <c r="N109">
-        <v>8.463556495314675</v>
+        <v>6.295455362364702</v>
       </c>
       <c r="O109">
         <v>3.26601898259122</v>
@@ -6974,10 +7127,10 @@
         </is>
       </c>
       <c r="S109">
-        <v>381457.8858882181</v>
+        <v>305329.3664788263</v>
       </c>
       <c r="T109">
-        <v>340392.1847496334</v>
+        <v>275653.9474072338</v>
       </c>
       <c r="U109">
         <v>88714.51168128941</v>
@@ -6989,16 +7142,16 @@
         <v>70010.96091192566</v>
       </c>
       <c r="X109">
-        <v>789616.6434475192</v>
+        <v>768464.7442258081</v>
       </c>
       <c r="Y109">
-        <v>449224.4586978858</v>
+        <v>492810.7968185743</v>
       </c>
       <c r="Z109">
-        <v>413097.0843675564</v>
+        <v>456683.422488245</v>
       </c>
       <c r="AA109">
-        <v>323845.8632418194</v>
+        <v>367947.6008901384</v>
       </c>
       <c r="AE109" t="inlineStr">
         <is>
@@ -7016,7 +7169,7 @@
         </is>
       </c>
       <c r="C110">
-        <v>185655272.5290866</v>
+        <v>175152024.2241997</v>
       </c>
       <c r="D110">
         <v>23950112.1422574</v>
@@ -7051,13 +7204,16 @@
           <t>USD/MMBTU</t>
         </is>
       </c>
-      <c r="N110">
-        <v>5.728814685109065</v>
-      </c>
       <c r="R110" t="inlineStr">
         <is>
           <t>Millones de pesos corrientes</t>
         </is>
+      </c>
+      <c r="S110">
+        <v>453402.8125134932</v>
+      </c>
+      <c r="T110">
+        <v>409335.9131361296</v>
       </c>
       <c r="U110">
         <v>143278.0112145623</v>
@@ -7081,7 +7237,7 @@
         </is>
       </c>
       <c r="C111">
-        <v>175827628.644158</v>
+        <v>164579561.1756965</v>
       </c>
       <c r="D111">
         <v>11961897.6554286</v>
@@ -7112,6 +7268,18 @@
         <is>
           <t>Millones de pesos corrientes</t>
         </is>
+      </c>
+      <c r="S111">
+        <v>425157.1127607017</v>
+      </c>
+      <c r="T111">
+        <v>383835.4553061866</v>
+      </c>
+      <c r="U111">
+        <v>107174.7558206607</v>
+      </c>
+      <c r="V111">
+        <v>42716.27350826657</v>
       </c>
       <c r="AE111" t="inlineStr">
         <is>
@@ -7197,16 +7365,25 @@
         </is>
       </c>
       <c r="D2">
-        <v>269216.1200613433</v>
+        <v>225106.5102766767</v>
+      </c>
+      <c r="E2">
+        <v>0.3048099911586388</v>
       </c>
       <c r="F2">
         <v>0.135698927</v>
       </c>
+      <c r="G2">
+        <v>2722.86765102012</v>
+      </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>36532.33862342746</v>
+        <v>30546.71190525949</v>
+      </c>
+      <c r="J2">
+        <v>38068.00150192635</v>
       </c>
     </row>
     <row r="3">
@@ -7222,16 +7399,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>209269.210735943</v>
+        <v>223668.8850836391</v>
+      </c>
+      <c r="E3">
+        <v>0.3777719194701607</v>
       </c>
       <c r="F3">
         <v>0.107747531</v>
       </c>
+      <c r="G3">
+        <v>3313.964497500441</v>
+      </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>22548.24077111655</v>
+        <v>24099.77012928484</v>
+      </c>
+      <c r="J3">
+        <v>60396.0539145123</v>
       </c>
     </row>
     <row r="4">
@@ -7247,16 +7433,25 @@
         </is>
       </c>
       <c r="D4">
-        <v>391834.7982269349</v>
+        <v>437628.5273570395</v>
+      </c>
+      <c r="E4">
+        <v>0.3614242328067346</v>
       </c>
       <c r="F4">
         <v>0.117066142</v>
       </c>
+      <c r="G4">
+        <v>6145.252859504971</v>
+      </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>45870.58812977571</v>
+        <v>51231.48332683006</v>
+      </c>
+      <c r="J4">
+        <v>106938.071427529</v>
       </c>
     </row>
     <row r="5">
@@ -7272,16 +7467,25 @@
         </is>
       </c>
       <c r="D5">
-        <v>645791.705005449</v>
+        <v>494278.4119603414</v>
+      </c>
+      <c r="E5">
+        <v>0.2302067558498727</v>
       </c>
       <c r="F5">
         <v>0.114123054</v>
       </c>
+      <c r="G5">
+        <v>4373.759849802299</v>
+      </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>73699.72162308893</v>
+        <v>56408.56189918429</v>
+      </c>
+      <c r="J5">
+        <v>57377.66780483281</v>
       </c>
     </row>
     <row r="6">
@@ -7297,16 +7501,25 @@
         </is>
       </c>
       <c r="D6">
-        <v>532437.5491901466</v>
+        <v>629366.6051685548</v>
+      </c>
+      <c r="E6">
+        <v>0.1039872251880539</v>
       </c>
       <c r="F6">
         <v>0.188701126</v>
       </c>
+      <c r="G6">
+        <v>3166.401336164298</v>
+      </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>100471.5650568611</v>
+        <v>118762.1870621037</v>
+      </c>
+      <c r="J6">
+        <v>-53316.10016460021</v>
       </c>
     </row>
     <row r="7">
@@ -7322,16 +7535,25 @@
         </is>
       </c>
       <c r="D7">
-        <v>529712.6896753556</v>
+        <v>524125.8862213257</v>
+      </c>
+      <c r="E7">
+        <v>0.1961863645571697</v>
       </c>
       <c r="F7">
         <v>0.195745529</v>
       </c>
+      <c r="G7">
+        <v>5643.698838620672</v>
+      </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>103688.8906585153</v>
+        <v>102595.2988609872</v>
+      </c>
+      <c r="J7">
+        <v>231.0533270794258</v>
       </c>
     </row>
     <row r="8">
@@ -7347,25 +7569,25 @@
         </is>
       </c>
       <c r="D8">
-        <v>877949.7356656358</v>
+        <v>528871.1375839805</v>
       </c>
       <c r="E8">
-        <v>0.2452316815479658</v>
+        <v>0.3587640043488117</v>
       </c>
       <c r="F8">
         <v>0.185661556</v>
       </c>
       <c r="G8">
-        <v>12338.75976999554</v>
+        <v>10873.86682251721</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>163001.5140134707</v>
+        <v>98191.03832733189</v>
       </c>
       <c r="J8">
-        <v>52299.57597840528</v>
+        <v>91548.88877680825</v>
       </c>
     </row>
     <row r="9">
@@ -7381,25 +7603,25 @@
         </is>
       </c>
       <c r="D9">
-        <v>528077.7739664811</v>
+        <v>562841.5228632515</v>
       </c>
       <c r="E9">
-        <v>0.7222683820098477</v>
+        <v>0.615897197791023</v>
       </c>
       <c r="F9">
         <v>0.181745386</v>
       </c>
       <c r="G9">
-        <v>23966.10106853424</v>
+        <v>21781.87449603073</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>95975.69886755887</v>
+        <v>102293.8498296095</v>
       </c>
       <c r="J9">
-        <v>285438.1805105735</v>
+        <v>244358.6669022991</v>
       </c>
     </row>
     <row r="10">
@@ -7418,13 +7640,13 @@
         <v>562955.9757558049</v>
       </c>
       <c r="E10">
-        <v>0.8539702728324874</v>
+        <v>0.7897880044964051</v>
       </c>
       <c r="F10">
         <v>0.179536264</v>
       </c>
       <c r="G10">
-        <v>33499.70811702465</v>
+        <v>30981.95390010584</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -7433,7 +7655,7 @@
         <v>101071.0126836718</v>
       </c>
       <c r="J10">
-        <v>379676.6555251921</v>
+        <v>343544.864027832</v>
       </c>
     </row>
     <row r="11">
@@ -7449,25 +7671,25 @@
         </is>
       </c>
       <c r="D11">
-        <v>675765.1596681491</v>
+        <v>519933.5484174538</v>
       </c>
       <c r="E11">
-        <v>0.7740492790879719</v>
+        <v>0.9516612511392607</v>
       </c>
       <c r="F11">
         <v>0.177969154</v>
       </c>
       <c r="G11">
-        <v>41217.6875248743</v>
+        <v>38989.65948028438</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>120265.3537688154</v>
+        <v>92532.13374807229</v>
       </c>
       <c r="J11">
-        <v>402810.1809050837</v>
+        <v>402268.4774481572</v>
       </c>
     </row>
     <row r="12">
@@ -7483,25 +7705,25 @@
         </is>
       </c>
       <c r="D12">
-        <v>682849.7944066055</v>
+        <v>475373.9317994681</v>
       </c>
       <c r="E12">
-        <v>1.5764773517743</v>
+        <v>2.218505493351129</v>
       </c>
       <c r="F12">
         <v>0.177329043</v>
       </c>
       <c r="G12">
-        <v>104032.3831257823</v>
+        <v>101918.1423645509</v>
       </c>
       <c r="H12">
         <v>6686.514456747649</v>
       </c>
       <c r="I12">
-        <v>121089.1005548701</v>
+        <v>84297.60439314693</v>
       </c>
       <c r="J12">
-        <v>948721.6205341329</v>
+        <v>963635.5602431501</v>
       </c>
     </row>
     <row r="13">
@@ -7517,25 +7739,25 @@
         </is>
       </c>
       <c r="D13">
-        <v>612003.4470220415</v>
+        <v>444656.6497702878</v>
       </c>
       <c r="E13">
-        <v>0.8703752565967724</v>
+        <v>1.227698414243887</v>
       </c>
       <c r="F13">
         <v>0.168781923</v>
       </c>
       <c r="G13">
-        <v>59120.80926639742</v>
+        <v>60589.37213976433</v>
       </c>
       <c r="H13">
         <v>22840.09983724428</v>
       </c>
       <c r="I13">
-        <v>103295.1186710088</v>
+        <v>75050.00442296668</v>
       </c>
       <c r="J13">
-        <v>406537.4387316656</v>
+        <v>448014.159545771</v>
       </c>
     </row>
     <row r="14">
@@ -7551,25 +7773,25 @@
         </is>
       </c>
       <c r="D14">
-        <v>738436.9285083405</v>
+        <v>459505.0225973533</v>
       </c>
       <c r="E14">
-        <v>0.9895970848135424</v>
+        <v>1.629437492145172</v>
       </c>
       <c r="F14">
         <v>0.168907292</v>
       </c>
       <c r="G14">
-        <v>102072.4010676553</v>
+        <v>104583.8159958457</v>
       </c>
       <c r="H14">
         <v>28406.20760098745</v>
       </c>
       <c r="I14">
-        <v>124727.3819071414</v>
+        <v>77613.74902731774</v>
       </c>
       <c r="J14">
-        <v>577621.4422623911</v>
+        <v>642714.755020837</v>
       </c>
     </row>
     <row r="15">
@@ -7585,25 +7807,25 @@
         </is>
       </c>
       <c r="D15">
-        <v>680669.9067947728</v>
+        <v>477748.5151195527</v>
       </c>
       <c r="E15">
-        <v>1.225736348900051</v>
+        <v>1.792605029549274</v>
       </c>
       <c r="F15">
         <v>0.165799322</v>
       </c>
       <c r="G15">
-        <v>144335.071899941</v>
+        <v>148157.0130872179</v>
       </c>
       <c r="H15">
         <v>31668.95361576589</v>
       </c>
       <c r="I15">
-        <v>112854.6090523765</v>
+        <v>79210.37989332859</v>
       </c>
       <c r="J15">
-        <v>689798.2836926204</v>
+        <v>745535.0575539129</v>
       </c>
     </row>
     <row r="16">
@@ -7619,25 +7841,25 @@
         </is>
       </c>
       <c r="D16">
-        <v>635437.2388492434</v>
+        <v>560380.2894784666</v>
       </c>
       <c r="E16">
-        <v>1.387099346444174</v>
+        <v>1.611393435992753</v>
       </c>
       <c r="F16">
         <v>0.156365551</v>
       </c>
       <c r="G16">
-        <v>188530.8916677467</v>
+        <v>193146.4514183993</v>
       </c>
       <c r="H16">
         <v>20304.75734662714</v>
       </c>
       <c r="I16">
-        <v>99360.49397858055</v>
+        <v>87624.17273383994</v>
       </c>
       <c r="J16">
-        <v>761749.3273888682</v>
+        <v>795064.1900448526</v>
       </c>
     </row>
     <row r="17">
@@ -7653,25 +7875,25 @@
         </is>
       </c>
       <c r="D17">
-        <v>770045.2988799152</v>
+        <v>731548.3904041897</v>
       </c>
       <c r="E17">
-        <v>0.8914331449578232</v>
+        <v>0.9367874136742788</v>
       </c>
       <c r="F17">
         <v>0.153400732</v>
       </c>
       <c r="G17">
-        <v>184864.0519989228</v>
+        <v>184557.4251553834</v>
       </c>
       <c r="H17">
         <v>43523.39928321803</v>
       </c>
       <c r="I17">
-        <v>118125.5125213378</v>
+        <v>112220.0585814245</v>
       </c>
       <c r="J17">
-        <v>524794.9907359538</v>
+        <v>529561.8667596799</v>
       </c>
     </row>
     <row r="18">
@@ -7687,25 +7909,25 @@
         </is>
       </c>
       <c r="D18">
-        <v>911737.9936490433</v>
+        <v>730398.8541162105</v>
       </c>
       <c r="E18">
-        <v>0.7236046753184898</v>
+        <v>0.904108138300938</v>
       </c>
       <c r="F18">
         <v>0.158603639</v>
       </c>
       <c r="G18">
-        <v>253512.6247896782</v>
+        <v>253751.5106362328</v>
       </c>
       <c r="H18">
         <v>47207.29103090671</v>
       </c>
       <c r="I18">
-        <v>144604.9636072971</v>
+        <v>115843.9161842611</v>
       </c>
       <c r="J18">
-        <v>467925.6202317434</v>
+        <v>497308.3409969776</v>
       </c>
     </row>
     <row r="19">
@@ -7721,25 +7943,25 @@
         </is>
       </c>
       <c r="D19">
-        <v>877404.7637626776</v>
+        <v>861077.6076931011</v>
       </c>
       <c r="E19">
-        <v>0.3107610347557892</v>
+        <v>0.3002455377884004</v>
       </c>
       <c r="F19">
         <v>0.152714321</v>
       </c>
       <c r="G19">
-        <v>132610.8607905861</v>
+        <v>125739.406024687</v>
       </c>
       <c r="H19">
         <v>57430.71189412219</v>
       </c>
       <c r="I19">
-        <v>133992.2727401827</v>
+        <v>131498.8821871563</v>
       </c>
       <c r="J19">
-        <v>81240.22765224357</v>
+        <v>69605.11531808585</v>
       </c>
     </row>
     <row r="20">
@@ -7755,25 +7977,25 @@
         </is>
       </c>
       <c r="D20">
-        <v>638707.0702669927</v>
+        <v>1017437.292686123</v>
       </c>
       <c r="E20">
-        <v>0.1225930498677455</v>
+        <v>0.05794879043360126</v>
       </c>
       <c r="F20">
         <v>0.157300074</v>
       </c>
       <c r="G20">
-        <v>52914.39864544806</v>
+        <v>39843.57684167949</v>
       </c>
       <c r="H20">
         <v>17493.75669023072</v>
       </c>
       <c r="I20">
-        <v>100468.6694173212</v>
+        <v>160042.9614298868</v>
       </c>
       <c r="J20">
-        <v>-39661.37839142883</v>
+        <v>-118577.4576669188</v>
       </c>
     </row>
     <row r="21">
@@ -7789,25 +8011,25 @@
         </is>
       </c>
       <c r="D21">
-        <v>595654.289933296</v>
+        <v>320019.1634937194</v>
       </c>
       <c r="E21">
-        <v>0.3375817898918533</v>
+        <v>0.546086199512246</v>
       </c>
       <c r="F21">
         <v>0.157291505</v>
       </c>
       <c r="G21">
-        <v>167705.6620060298</v>
+        <v>145751.0280959135</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>93691.35972331448</v>
+        <v>50336.29585476818</v>
       </c>
       <c r="J21">
-        <v>107390.6816291285</v>
+        <v>124421.7529086051</v>
       </c>
     </row>
     <row r="22">
@@ -7823,25 +8045,25 @@
         </is>
       </c>
       <c r="D22">
-        <v>643066.8454906581</v>
+        <v>542750.893</v>
       </c>
       <c r="E22">
-        <v>0.5035959566454185</v>
+        <v>0.6779308991208576</v>
       </c>
       <c r="F22">
         <v>0.157437741</v>
       </c>
       <c r="G22">
-        <v>323845.8632418194</v>
+        <v>367947.6008901384</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>101242.9914660452</v>
+        <v>85449.47451965272</v>
       </c>
       <c r="J22">
-        <v>222602.8717757742</v>
+        <v>282498.1263704857</v>
       </c>
     </row>
     <row r="23">
@@ -7853,17 +8075,11 @@
           <t>Millones de pesos de 2018</t>
         </is>
       </c>
-      <c r="D23">
-        <v>550421.6219877667</v>
-      </c>
       <c r="F23">
         <v>0.173618211</v>
       </c>
       <c r="H23">
         <v>0</v>
-      </c>
-      <c r="I23">
-        <v>95563.21730523431</v>
       </c>
     </row>
     <row r="24">
@@ -7875,14 +8091,8 @@
           <t>Millones de pesos de 2018</t>
         </is>
       </c>
-      <c r="D24">
-        <v>158586.8237608318</v>
-      </c>
       <c r="F24">
         <v>0.157970348</v>
-      </c>
-      <c r="I24">
-        <v>25052.01573771327</v>
       </c>
     </row>
   </sheetData>

--- a/analisis/resultados/argentina/renta_metodo_directo.xlsx
+++ b/analisis/resultados/argentina/renta_metodo_directo.xlsx
@@ -491,27 +491,27 @@
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
+          <t>vbp_extr</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>ebe_extr</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>va_extr</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>fuente</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
           <t>pv</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>vbp_extr</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>ebe_extr</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>va_extr</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>fuente</t>
         </is>
       </c>
     </row>
@@ -533,7 +533,12 @@
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
         <is>
           <t>Criterio propio</t>
         </is>
@@ -557,7 +562,12 @@
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="AE3" t="inlineStr">
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
         <is>
           <t>Criterio propio</t>
         </is>
@@ -589,7 +599,12 @@
       <c r="J4">
         <v>35300</v>
       </c>
-      <c r="AE4" t="inlineStr">
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
         <is>
           <t>Criterio propio</t>
         </is>
@@ -621,7 +636,12 @@
       <c r="J5">
         <v>105900</v>
       </c>
-      <c r="AE5" t="inlineStr">
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
         <is>
           <t>Criterio propio</t>
         </is>
@@ -653,7 +673,12 @@
       <c r="J6">
         <v>247100</v>
       </c>
-      <c r="AE6" t="inlineStr">
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
         <is>
           <t>Criterio propio</t>
         </is>
@@ -685,7 +710,12 @@
       <c r="J7">
         <v>317700</v>
       </c>
-      <c r="AE7" t="inlineStr">
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
         <is>
           <t>Criterio propio</t>
         </is>
@@ -717,7 +747,12 @@
       <c r="J8">
         <v>529500</v>
       </c>
-      <c r="AE8" t="inlineStr">
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
         <is>
           <t>Criterio propio</t>
         </is>
@@ -749,7 +784,12 @@
       <c r="J9">
         <v>635400</v>
       </c>
-      <c r="AE9" t="inlineStr">
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
         <is>
           <t>Criterio propio</t>
         </is>
@@ -781,7 +821,12 @@
       <c r="J10">
         <v>635400</v>
       </c>
-      <c r="AE10" t="inlineStr">
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
         <is>
           <t>Criterio propio</t>
         </is>
@@ -813,7 +858,12 @@
       <c r="J11">
         <v>776600</v>
       </c>
-      <c r="AE11" t="inlineStr">
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
         <is>
           <t>Criterio propio</t>
         </is>
@@ -845,7 +895,12 @@
       <c r="J12">
         <v>988400</v>
       </c>
-      <c r="AE12" t="inlineStr">
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr">
         <is>
           <t>Criterio propio</t>
         </is>
@@ -882,7 +937,12 @@
           <t>USD/MMBTU</t>
         </is>
       </c>
-      <c r="AE13" t="inlineStr">
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="AD13" t="inlineStr">
         <is>
           <t>Criterio propio</t>
         </is>
@@ -919,7 +979,12 @@
           <t>USD/MMBTU</t>
         </is>
       </c>
-      <c r="AE14" t="inlineStr">
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="AD14" t="inlineStr">
         <is>
           <t>Criterio propio</t>
         </is>
@@ -956,7 +1021,12 @@
           <t>USD/MMBTU</t>
         </is>
       </c>
-      <c r="AE15" t="inlineStr">
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="AD15" t="inlineStr">
         <is>
           <t>Criterio propio</t>
         </is>
@@ -993,7 +1063,12 @@
           <t>USD/MMBTU</t>
         </is>
       </c>
-      <c r="AE16" t="inlineStr">
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="AD16" t="inlineStr">
         <is>
           <t>Criterio propio</t>
         </is>
@@ -1030,7 +1105,12 @@
           <t>USD/MMBTU</t>
         </is>
       </c>
-      <c r="AE17" t="inlineStr">
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="AD17" t="inlineStr">
         <is>
           <t>Criterio propio</t>
         </is>
@@ -1067,7 +1147,12 @@
           <t>USD/MMBTU</t>
         </is>
       </c>
-      <c r="AE18" t="inlineStr">
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="AD18" t="inlineStr">
         <is>
           <t>Criterio propio</t>
         </is>
@@ -1104,7 +1189,12 @@
           <t>USD/MMBTU</t>
         </is>
       </c>
-      <c r="AE19" t="inlineStr">
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="AD19" t="inlineStr">
         <is>
           <t>Criterio propio</t>
         </is>
@@ -1141,7 +1231,12 @@
           <t>USD/MMBTU</t>
         </is>
       </c>
-      <c r="AE20" t="inlineStr">
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="AD20" t="inlineStr">
         <is>
           <t>Criterio propio</t>
         </is>
@@ -1178,7 +1273,12 @@
           <t>USD/MMBTU</t>
         </is>
       </c>
-      <c r="AE21" t="inlineStr">
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="AD21" t="inlineStr">
         <is>
           <t>Criterio propio</t>
         </is>
@@ -1215,7 +1315,12 @@
           <t>USD/MMBTU</t>
         </is>
       </c>
-      <c r="AE22" t="inlineStr">
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="AD22" t="inlineStr">
         <is>
           <t>Criterio propio</t>
         </is>
@@ -1252,7 +1357,12 @@
           <t>USD/MMBTU</t>
         </is>
       </c>
-      <c r="AE23" t="inlineStr">
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="AD23" t="inlineStr">
         <is>
           <t>Criterio propio</t>
         </is>
@@ -1289,7 +1399,12 @@
           <t>USD/MMBTU</t>
         </is>
       </c>
-      <c r="AE24" t="inlineStr">
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="AD24" t="inlineStr">
         <is>
           <t>Criterio propio</t>
         </is>
@@ -1326,7 +1441,12 @@
           <t>USD/MMBTU</t>
         </is>
       </c>
-      <c r="AE25" t="inlineStr">
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="AD25" t="inlineStr">
         <is>
           <t>Criterio propio</t>
         </is>
@@ -1363,7 +1483,12 @@
           <t>USD/MMBTU</t>
         </is>
       </c>
-      <c r="AE26" t="inlineStr">
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="AD26" t="inlineStr">
         <is>
           <t>Criterio propio</t>
         </is>
@@ -1406,7 +1531,12 @@
       <c r="Q27">
         <v>3.01e-013</v>
       </c>
-      <c r="AE27" t="inlineStr">
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="AD27" t="inlineStr">
         <is>
           <t>Criterio propio</t>
         </is>
@@ -1449,7 +1579,12 @@
       <c r="Q28">
         <v>3.03e-013</v>
       </c>
-      <c r="AE28" t="inlineStr">
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="AD28" t="inlineStr">
         <is>
           <t>Criterio propio</t>
         </is>
@@ -1492,7 +1627,12 @@
       <c r="Q29">
         <v>3.07e-013</v>
       </c>
-      <c r="AE29" t="inlineStr">
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="AD29" t="inlineStr">
         <is>
           <t>Criterio propio</t>
         </is>
@@ -1535,7 +1675,12 @@
       <c r="Q30">
         <v>3.27e-013</v>
       </c>
-      <c r="AE30" t="inlineStr">
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="AD30" t="inlineStr">
         <is>
           <t>Criterio propio</t>
         </is>
@@ -1578,7 +1723,12 @@
       <c r="Q31">
         <v>3.36e-013</v>
       </c>
-      <c r="AE31" t="inlineStr">
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="AD31" t="inlineStr">
         <is>
           <t>Criterio propio</t>
         </is>
@@ -1621,7 +1771,12 @@
       <c r="Q32">
         <v>3.36e-013</v>
       </c>
-      <c r="AE32" t="inlineStr">
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="AD32" t="inlineStr">
         <is>
           <t>Criterio propio</t>
         </is>
@@ -1664,7 +1819,12 @@
       <c r="Q33">
         <v>3.36e-013</v>
       </c>
-      <c r="AE33" t="inlineStr">
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="AD33" t="inlineStr">
         <is>
           <t>Criterio propio</t>
         </is>
@@ -1707,7 +1867,12 @@
       <c r="Q34">
         <v>3.36e-013</v>
       </c>
-      <c r="AE34" t="inlineStr">
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="AD34" t="inlineStr">
         <is>
           <t>Criterio propio</t>
         </is>
@@ -1750,7 +1915,12 @@
       <c r="Q35">
         <v>3.36e-013</v>
       </c>
-      <c r="AE35" t="inlineStr">
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="AD35" t="inlineStr">
         <is>
           <t>Criterio propio</t>
         </is>
@@ -1793,7 +1963,12 @@
       <c r="Q36">
         <v>3.36e-013</v>
       </c>
-      <c r="AE36" t="inlineStr">
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="AD36" t="inlineStr">
         <is>
           <t>Criterio propio</t>
         </is>
@@ -1836,7 +2011,12 @@
       <c r="Q37">
         <v>3.36e-013</v>
       </c>
-      <c r="AE37" t="inlineStr">
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="AD37" t="inlineStr">
         <is>
           <t>Criterio propio</t>
         </is>
@@ -1879,7 +2059,12 @@
       <c r="Q38">
         <v>3.36e-013</v>
       </c>
-      <c r="AE38" t="inlineStr">
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="AD38" t="inlineStr">
         <is>
           <t>Criterio propio</t>
         </is>
@@ -1922,7 +2107,12 @@
       <c r="Q39">
         <v>3.36e-013</v>
       </c>
-      <c r="AE39" t="inlineStr">
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="AD39" t="inlineStr">
         <is>
           <t>Criterio propio</t>
         </is>
@@ -1965,7 +2155,12 @@
       <c r="Q40">
         <v>3.36e-013</v>
       </c>
-      <c r="AE40" t="inlineStr">
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="AD40" t="inlineStr">
         <is>
           <t>Criterio propio</t>
         </is>
@@ -2008,7 +2203,12 @@
       <c r="Q41">
         <v>3.91e-013</v>
       </c>
-      <c r="AE41" t="inlineStr">
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="AD41" t="inlineStr">
         <is>
           <t>Criterio propio</t>
         </is>
@@ -2051,7 +2251,12 @@
       <c r="Q42">
         <v>5e-013</v>
       </c>
-      <c r="AE42" t="inlineStr">
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="AD42" t="inlineStr">
         <is>
           <t>Criterio propio</t>
         </is>
@@ -2094,7 +2299,12 @@
       <c r="Q43">
         <v>5e-013</v>
       </c>
-      <c r="AE43" t="inlineStr">
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="AD43" t="inlineStr">
         <is>
           <t>Criterio propio</t>
         </is>
@@ -2137,7 +2347,12 @@
       <c r="Q44">
         <v>5e-013</v>
       </c>
-      <c r="AE44" t="inlineStr">
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="AD44" t="inlineStr">
         <is>
           <t>Criterio propio</t>
         </is>
@@ -2180,7 +2395,12 @@
       <c r="Q45">
         <v>5e-013</v>
       </c>
-      <c r="AE45" t="inlineStr">
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="AD45" t="inlineStr">
         <is>
           <t>Criterio propio</t>
         </is>
@@ -2223,7 +2443,12 @@
       <c r="Q46">
         <v>6.9e-013</v>
       </c>
-      <c r="AE46" t="inlineStr">
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="AD46" t="inlineStr">
         <is>
           <t>Criterio propio</t>
         </is>
@@ -2266,7 +2491,12 @@
       <c r="Q47">
         <v>1.8e-012</v>
       </c>
-      <c r="AE47" t="inlineStr">
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="AD47" t="inlineStr">
         <is>
           <t>Criterio propio</t>
         </is>
@@ -2309,7 +2539,12 @@
       <c r="Q48">
         <v>1.8e-012</v>
       </c>
-      <c r="AE48" t="inlineStr">
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="AD48" t="inlineStr">
         <is>
           <t>Criterio propio</t>
         </is>
@@ -2352,7 +2587,12 @@
       <c r="Q49">
         <v>1.8e-012</v>
       </c>
-      <c r="AE49" t="inlineStr">
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="AD49" t="inlineStr">
         <is>
           <t>Criterio propio</t>
         </is>
@@ -2395,7 +2635,12 @@
       <c r="Q50">
         <v>8.060000000000001e-012</v>
       </c>
-      <c r="AE50" t="inlineStr">
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="AD50" t="inlineStr">
         <is>
           <t>Criterio propio</t>
         </is>
@@ -2438,7 +2683,12 @@
       <c r="Q51">
         <v>8.28e-012</v>
       </c>
-      <c r="AE51" t="inlineStr">
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="AD51" t="inlineStr">
         <is>
           <t>Criterio propio</t>
         </is>
@@ -2481,7 +2731,12 @@
       <c r="Q52">
         <v>8.29e-012</v>
       </c>
-      <c r="AE52" t="inlineStr">
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="AD52" t="inlineStr">
         <is>
           <t>Criterio propio</t>
         </is>
@@ -2530,7 +2785,12 @@
       <c r="Q53">
         <v>1.16e-011</v>
       </c>
-      <c r="AE53" t="inlineStr">
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="AD53" t="inlineStr">
         <is>
           <t>Criterio propio</t>
         </is>
@@ -2593,13 +2853,18 @@
       <c r="Q54">
         <v>1.39e-011</v>
       </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
       <c r="U54">
         <v>4.294195298040208e-010</v>
       </c>
       <c r="V54">
         <v>1.711522638371494e-010</v>
       </c>
-      <c r="AE54" t="inlineStr">
+      <c r="AD54" t="inlineStr">
         <is>
           <t>Criterio propio</t>
         </is>
@@ -2665,6 +2930,11 @@
       <c r="Q55">
         <v>1.41e-011</v>
       </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
       <c r="U55">
         <v>3.134658541284864e-010</v>
       </c>
@@ -2674,7 +2944,7 @@
       <c r="X55">
         <v>3.556349796281209e-009</v>
       </c>
-      <c r="AE55" t="inlineStr">
+      <c r="AD55" t="inlineStr">
         <is>
           <t>Criterio propio</t>
         </is>
@@ -2740,6 +3010,11 @@
       <c r="Q56">
         <v>1.68e-011</v>
       </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
       <c r="U56">
         <v>5.238316938068898e-010</v>
       </c>
@@ -2749,7 +3024,7 @@
       <c r="X56">
         <v>6.101645389253965e-009</v>
       </c>
-      <c r="AE56" t="inlineStr">
+      <c r="AD56" t="inlineStr">
         <is>
           <t>Criterio propio</t>
         </is>
@@ -2815,6 +3090,11 @@
       <c r="Q57">
         <v>2.07e-011</v>
       </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
       <c r="U57">
         <v>9.70718229363162e-010</v>
       </c>
@@ -2824,7 +3104,7 @@
       <c r="X57">
         <v>1.459059701249945e-008</v>
       </c>
-      <c r="AE57" t="inlineStr">
+      <c r="AD57" t="inlineStr">
         <is>
           <t>Criterio propio</t>
         </is>
@@ -2890,6 +3170,11 @@
       <c r="Q58">
         <v>3.31e-011</v>
       </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
       <c r="U58">
         <v>1.159715570983642e-009</v>
       </c>
@@ -2899,7 +3184,7 @@
       <c r="X58">
         <v>6.982224903171375e-009</v>
       </c>
-      <c r="AE58" t="inlineStr">
+      <c r="AD58" t="inlineStr">
         <is>
           <t>Criterio propio</t>
         </is>
@@ -2962,13 +3247,18 @@
       <c r="Q59">
         <v>3.5e-011</v>
       </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
       <c r="U59">
         <v>1.585170625671023e-009</v>
       </c>
       <c r="V59">
         <v>6.317959997663937e-010</v>
       </c>
-      <c r="AE59" t="inlineStr">
+      <c r="AD59" t="inlineStr">
         <is>
           <t>Criterio propio</t>
         </is>
@@ -3031,13 +3321,18 @@
       <c r="Q60">
         <v>3.5e-011</v>
       </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
       <c r="U60">
         <v>1.650492871600285e-009</v>
       </c>
       <c r="V60">
         <v>6.578312624728258e-010</v>
       </c>
-      <c r="AE60" t="inlineStr">
+      <c r="AD60" t="inlineStr">
         <is>
           <t>Criterio propio</t>
         </is>
@@ -3100,13 +3395,18 @@
       <c r="Q61">
         <v>3.77e-011</v>
       </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
       <c r="U61">
         <v>1.953305993242064e-009</v>
       </c>
       <c r="V61">
         <v>7.785224460159627e-010</v>
       </c>
-      <c r="AE61" t="inlineStr">
+      <c r="AD61" t="inlineStr">
         <is>
           <t>Criterio propio</t>
         </is>
@@ -3169,13 +3469,18 @@
       <c r="Q62">
         <v>4.59e-011</v>
       </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
       <c r="U62">
         <v>2.158504125677133e-009</v>
       </c>
       <c r="V62">
         <v>8.603075593233276e-010</v>
       </c>
-      <c r="AE62" t="inlineStr">
+      <c r="AD62" t="inlineStr">
         <is>
           <t>Criterio propio</t>
         </is>
@@ -3241,6 +3546,11 @@
       <c r="Q63">
         <v>8e-011</v>
       </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
       <c r="U63">
         <v>2.93027849154626e-009</v>
       </c>
@@ -3250,7 +3560,7 @@
       <c r="X63">
         <v>4.255045368694049e-008</v>
       </c>
-      <c r="AE63" t="inlineStr">
+      <c r="AD63" t="inlineStr">
         <is>
           <t>Criterio propio</t>
         </is>
@@ -3310,10 +3620,15 @@
       <c r="Q64">
         <v>8.68e-011</v>
       </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
       <c r="X64">
         <v>1.204349753294321e-007</v>
       </c>
-      <c r="AE64" t="inlineStr">
+      <c r="AD64" t="inlineStr">
         <is>
           <t>Criterio propio</t>
         </is>
@@ -3379,6 +3694,11 @@
       <c r="Q65">
         <v>8.68e-011</v>
       </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
       <c r="U65">
         <v>1.27599828008429e-008</v>
       </c>
@@ -3388,7 +3708,7 @@
       <c r="X65">
         <v>3.029529848701026e-007</v>
       </c>
-      <c r="AE65" t="inlineStr">
+      <c r="AD65" t="inlineStr">
         <is>
           <t>Criterio propio</t>
         </is>
@@ -3454,6 +3774,11 @@
       <c r="Q66">
         <v>2.57e-010</v>
       </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
       <c r="U66">
         <v>2.243262474940733e-008</v>
       </c>
@@ -3463,7 +3788,7 @@
       <c r="X66">
         <v>8.11769199463471e-007</v>
       </c>
-      <c r="AE66" t="inlineStr">
+      <c r="AD66" t="inlineStr">
         <is>
           <t>Criterio propio</t>
         </is>
@@ -3529,6 +3854,11 @@
       <c r="Q67">
         <v>1.83e-009</v>
       </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
       <c r="U67">
         <v>1.686443004239358e-007</v>
       </c>
@@ -3538,7 +3868,7 @@
       <c r="X67">
         <v>4.245354665116893e-006</v>
       </c>
-      <c r="AE67" t="inlineStr">
+      <c r="AD67" t="inlineStr">
         <is>
           <t>Criterio propio</t>
         </is>
@@ -3604,6 +3934,11 @@
       <c r="Q68">
         <v>4.05e-009</v>
       </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
       <c r="U68">
         <v>4.533944634439539e-007</v>
       </c>
@@ -3613,7 +3948,7 @@
       <c r="X68">
         <v>1.219829718996223e-005</v>
       </c>
-      <c r="AE68" t="inlineStr">
+      <c r="AD68" t="inlineStr">
         <is>
           <t>Criterio propio</t>
         </is>
@@ -3679,6 +4014,11 @@
       <c r="Q69">
         <v>7.9e-009</v>
       </c>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
       <c r="U69">
         <v>1.620994446586027e-006</v>
       </c>
@@ -3688,7 +4028,7 @@
       <c r="X69">
         <v>3.515754017968907e-005</v>
       </c>
-      <c r="AE69" t="inlineStr">
+      <c r="AD69" t="inlineStr">
         <is>
           <t>Criterio propio</t>
         </is>
@@ -3754,6 +4094,11 @@
       <c r="Q70">
         <v>1.31e-008</v>
       </c>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
       <c r="U70">
         <v>3.438430560753937e-006</v>
       </c>
@@ -3763,7 +4108,7 @@
       <c r="X70">
         <v>0.0001485809101650555</v>
       </c>
-      <c r="AE70" t="inlineStr">
+      <c r="AD70" t="inlineStr">
         <is>
           <t>Criterio propio</t>
         </is>
@@ -3823,10 +4168,15 @@
       <c r="Q71">
         <v>1.83e-008</v>
       </c>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
       <c r="X71">
         <v>0.0003134640100009773</v>
       </c>
-      <c r="AE71" t="inlineStr">
+      <c r="AD71" t="inlineStr">
         <is>
           <t>Criterio propio</t>
         </is>
@@ -3886,10 +4236,15 @@
       <c r="Q72">
         <v>4.41e-008</v>
       </c>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
       <c r="X72">
         <v>0.0006232474355314905</v>
       </c>
-      <c r="AE72" t="inlineStr">
+      <c r="AD72" t="inlineStr">
         <is>
           <t>Criterio propio</t>
         </is>
@@ -3949,10 +4304,15 @@
       <c r="Q73">
         <v>2.16e-007</v>
       </c>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
       <c r="X73">
         <v>0.001473383078571979</v>
       </c>
-      <c r="AE73" t="inlineStr">
+      <c r="AD73" t="inlineStr">
         <is>
           <t>Criterio propio</t>
         </is>
@@ -4012,10 +4372,15 @@
       <c r="Q74">
         <v>1.053e-006</v>
       </c>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
       <c r="X74">
         <v>0.006096231759367143</v>
       </c>
-      <c r="AE74" t="inlineStr">
+      <c r="AD74" t="inlineStr">
         <is>
           <t>Criterio propio</t>
         </is>
@@ -4081,6 +4446,11 @@
       <c r="Q75">
         <v>6.77e-006</v>
       </c>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
       <c r="U75">
         <v>0.002013784585738278</v>
       </c>
@@ -4090,7 +4460,7 @@
       <c r="X75">
         <v>0.04436122854112096</v>
       </c>
-      <c r="AE75" t="inlineStr">
+      <c r="AD75" t="inlineStr">
         <is>
           <t>Criterio propio</t>
         </is>
@@ -4156,6 +4526,11 @@
       <c r="Q76">
         <v>6e-005</v>
       </c>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
       <c r="U76">
         <v>0.01864378149636523</v>
       </c>
@@ -4165,7 +4540,7 @@
       <c r="X76">
         <v>0.338482667629745</v>
       </c>
-      <c r="AE76" t="inlineStr">
+      <c r="AD76" t="inlineStr">
         <is>
           <t>Criterio propio</t>
         </is>
@@ -4231,6 +4606,11 @@
       <c r="Q77">
         <v>9.42e-005</v>
       </c>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
       <c r="U77">
         <v>0.03030771975620718</v>
       </c>
@@ -4240,7 +4620,7 @@
       <c r="X77">
         <v>0.4636536704318414</v>
       </c>
-      <c r="AE77" t="inlineStr">
+      <c r="AD77" t="inlineStr">
         <is>
           <t>Criterio propio</t>
         </is>
@@ -4306,6 +4686,11 @@
       <c r="Q78">
         <v>0.000214</v>
       </c>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
       <c r="U78">
         <v>0.05607496850255284</v>
       </c>
@@ -4315,7 +4700,7 @@
       <c r="X78">
         <v>0.9038315753660692</v>
       </c>
-      <c r="AE78" t="inlineStr">
+      <c r="AD78" t="inlineStr">
         <is>
           <t>Criterio propio</t>
         </is>
@@ -4381,6 +4766,11 @@
       <c r="Q79">
         <v>0.000871</v>
       </c>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
       <c r="U79">
         <v>0.3352899255624758</v>
       </c>
@@ -4390,7 +4780,7 @@
       <c r="X79">
         <v>3.396052078096961</v>
       </c>
-      <c r="AE79" t="inlineStr">
+      <c r="AD79" t="inlineStr">
         <is>
           <t>Criterio propio</t>
         </is>
@@ -4456,6 +4846,11 @@
       <c r="Q80">
         <v>0.0394</v>
       </c>
+      <c r="R80" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
       <c r="U80">
         <v>2.208559465442972</v>
       </c>
@@ -4465,7 +4860,7 @@
       <c r="X80">
         <v>126.4741339301008</v>
       </c>
-      <c r="AE80" t="inlineStr">
+      <c r="AD80" t="inlineStr">
         <is>
           <t>Criterio propio</t>
         </is>
@@ -4531,6 +4926,11 @@
       <c r="Q81">
         <v>0.449</v>
       </c>
+      <c r="R81" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
       <c r="U81">
         <v>156.2161757443584</v>
       </c>
@@ -4540,7 +4940,7 @@
       <c r="X81">
         <v>3895.198372899919</v>
       </c>
-      <c r="AE81" t="inlineStr">
+      <c r="AD81" t="inlineStr">
         <is>
           <t>Criterio propio</t>
         </is>
@@ -4606,6 +5006,11 @@
       <c r="Q82">
         <v>0.95</v>
       </c>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
       <c r="U82">
         <v>372.805427284581</v>
       </c>
@@ -4615,7 +5020,7 @@
       <c r="X82">
         <v>10690.22622714689</v>
       </c>
-      <c r="AE82" t="inlineStr">
+      <c r="AD82" t="inlineStr">
         <is>
           <t>Criterio propio</t>
         </is>
@@ -4681,6 +5086,11 @@
       <c r="Q83">
         <v>0.99</v>
       </c>
+      <c r="R83" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
       <c r="U83">
         <v>380.8178524214677</v>
       </c>
@@ -4690,7 +5100,7 @@
       <c r="X83">
         <v>9562.699261143765</v>
       </c>
-      <c r="AE83" t="inlineStr">
+      <c r="AD83" t="inlineStr">
         <is>
           <t>Criterio propio</t>
         </is>
@@ -4756,6 +5166,11 @@
       <c r="Q84">
         <v>0.99</v>
       </c>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
       <c r="S84">
         <v>3352.410453463208</v>
       </c>
@@ -4777,7 +5192,7 @@
       <c r="Z84">
         <v>4872.021517457792</v>
       </c>
-      <c r="AE84" t="inlineStr">
+      <c r="AD84" t="inlineStr">
         <is>
           <t>Criterio propio</t>
         </is>
@@ -4843,6 +5258,11 @@
       <c r="Q85">
         <v>1</v>
       </c>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
       <c r="S85">
         <v>3586.037469778103</v>
       </c>
@@ -4864,7 +5284,7 @@
       <c r="Z85">
         <v>4507.174937530923</v>
       </c>
-      <c r="AE85" t="inlineStr">
+      <c r="AD85" t="inlineStr">
         <is>
           <t>Criterio propio</t>
         </is>
@@ -4930,6 +5350,11 @@
       <c r="Q86">
         <v>0.99</v>
       </c>
+      <c r="R86" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
       <c r="S86">
         <v>4201.993752067111</v>
       </c>
@@ -4951,7 +5376,7 @@
       <c r="Z86">
         <v>5772.637038236539</v>
       </c>
-      <c r="AE86" t="inlineStr">
+      <c r="AD86" t="inlineStr">
         <is>
           <t>Criterio propio</t>
         </is>
@@ -5017,6 +5442,11 @@
       <c r="Q87">
         <v>1</v>
       </c>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
       <c r="S87">
         <v>5554.565049741588</v>
       </c>
@@ -5038,7 +5468,7 @@
       <c r="Z87">
         <v>6656.505040476005</v>
       </c>
-      <c r="AE87" t="inlineStr">
+      <c r="AD87" t="inlineStr">
         <is>
           <t>Criterio propio</t>
         </is>
@@ -5104,6 +5534,11 @@
       <c r="Q88">
         <v>1</v>
       </c>
+      <c r="R88" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
       <c r="S88">
         <v>5481.114599047094</v>
       </c>
@@ -5128,13 +5563,13 @@
       <c r="Z88">
         <v>6012.63281841367</v>
       </c>
-      <c r="AA88">
+      <c r="AD88" t="inlineStr">
+        <is>
+          <t>Criterio propio</t>
+        </is>
+      </c>
+      <c r="AE88">
         <v>5596.189986526613</v>
-      </c>
-      <c r="AE88" t="inlineStr">
-        <is>
-          <t>Criterio propio</t>
-        </is>
       </c>
     </row>
     <row r="89">
@@ -5197,6 +5632,11 @@
       <c r="Q89">
         <v>1</v>
       </c>
+      <c r="R89" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
       <c r="S89">
         <v>3657.331974217674</v>
       </c>
@@ -5221,13 +5661,13 @@
       <c r="Z89">
         <v>4055.921226666038</v>
       </c>
-      <c r="AA89">
+      <c r="AD89" t="inlineStr">
+        <is>
+          <t>Criterio propio</t>
+        </is>
+      </c>
+      <c r="AE89">
         <v>2717.614638745469</v>
-      </c>
-      <c r="AE89" t="inlineStr">
-        <is>
-          <t>Criterio propio</t>
-        </is>
       </c>
     </row>
     <row r="90">
@@ -5287,6 +5727,11 @@
       <c r="Q90">
         <v>1</v>
       </c>
+      <c r="R90" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
       <c r="S90">
         <v>5054.899050229232</v>
       </c>
@@ -5311,13 +5756,13 @@
       <c r="Z90">
         <v>4623.731785862034</v>
       </c>
-      <c r="AA90">
+      <c r="AD90" t="inlineStr">
+        <is>
+          <t>Criterio propio</t>
+        </is>
+      </c>
+      <c r="AE90">
         <v>3260.166682204419</v>
-      </c>
-      <c r="AE90" t="inlineStr">
-        <is>
-          <t>Criterio propio</t>
-        </is>
       </c>
     </row>
     <row r="91">
@@ -5377,6 +5822,11 @@
       <c r="Q91">
         <v>1</v>
       </c>
+      <c r="R91" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
       <c r="S91">
         <v>7962.5774110974</v>
       </c>
@@ -5401,13 +5851,13 @@
       <c r="Z91">
         <v>8738.695475488625</v>
       </c>
-      <c r="AA91">
+      <c r="AD91" t="inlineStr">
+        <is>
+          <t>Criterio propio</t>
+        </is>
+      </c>
+      <c r="AE91">
         <v>6145.252859504971</v>
-      </c>
-      <c r="AE91" t="inlineStr">
-        <is>
-          <t>Criterio propio</t>
-        </is>
       </c>
     </row>
     <row r="92">
@@ -5470,6 +5920,11 @@
       <c r="Q92">
         <v>1</v>
       </c>
+      <c r="R92" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
       <c r="S92">
         <v>6606.531135576198</v>
       </c>
@@ -5494,13 +5949,13 @@
       <c r="Z92">
         <v>7155.141584772276</v>
       </c>
-      <c r="AA92">
+      <c r="AD92" t="inlineStr">
+        <is>
+          <t>Criterio propio</t>
+        </is>
+      </c>
+      <c r="AE92">
         <v>4373.759849802299</v>
-      </c>
-      <c r="AE92" t="inlineStr">
-        <is>
-          <t>Criterio propio</t>
-        </is>
       </c>
     </row>
     <row r="93">
@@ -5563,6 +6018,11 @@
       <c r="Q93">
         <v>3.14</v>
       </c>
+      <c r="R93" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
       <c r="S93">
         <v>10522.4814839843</v>
       </c>
@@ -5587,13 +6047,13 @@
       <c r="Z93">
         <v>7536.500960828379</v>
       </c>
-      <c r="AA93">
+      <c r="AD93" t="inlineStr">
+        <is>
+          <t>Criterio propio</t>
+        </is>
+      </c>
+      <c r="AE93">
         <v>3166.401336164298</v>
-      </c>
-      <c r="AE93" t="inlineStr">
-        <is>
-          <t>Criterio propio</t>
-        </is>
       </c>
     </row>
     <row r="94">
@@ -5656,6 +6116,11 @@
       <c r="Q94">
         <v>2.93</v>
       </c>
+      <c r="R94" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
       <c r="S94">
         <v>12705.23362875543</v>
       </c>
@@ -5680,13 +6145,13 @@
       <c r="Z94">
         <v>9905.350219264852</v>
       </c>
-      <c r="AA94">
+      <c r="AD94" t="inlineStr">
+        <is>
+          <t>Criterio propio</t>
+        </is>
+      </c>
+      <c r="AE94">
         <v>5643.698838620672</v>
-      </c>
-      <c r="AE94" t="inlineStr">
-        <is>
-          <t>Criterio propio</t>
-        </is>
       </c>
     </row>
     <row r="95">
@@ -5778,13 +6243,13 @@
       <c r="Z95">
         <v>15472.48766083203</v>
       </c>
-      <c r="AA95">
+      <c r="AD95" t="inlineStr">
+        <is>
+          <t>Criterio propio</t>
+        </is>
+      </c>
+      <c r="AE95">
         <v>10873.86682251721</v>
-      </c>
-      <c r="AE95" t="inlineStr">
-        <is>
-          <t>Criterio propio</t>
-        </is>
       </c>
     </row>
     <row r="96">
@@ -5876,13 +6341,13 @@
       <c r="Z96">
         <v>27359.17184131534</v>
       </c>
-      <c r="AA96">
+      <c r="AD96" t="inlineStr">
+        <is>
+          <t>Criterio propio</t>
+        </is>
+      </c>
+      <c r="AE96">
         <v>21781.87449603073</v>
-      </c>
-      <c r="AE96" t="inlineStr">
-        <is>
-          <t>Criterio propio</t>
-        </is>
       </c>
     </row>
     <row r="97">
@@ -5974,13 +6439,13 @@
       <c r="Z97">
         <v>37440.08095103034</v>
       </c>
-      <c r="AA97">
+      <c r="AD97" t="inlineStr">
+        <is>
+          <t>Criterio propio</t>
+        </is>
+      </c>
+      <c r="AE97">
         <v>30981.95390010584</v>
-      </c>
-      <c r="AE97" t="inlineStr">
-        <is>
-          <t>Criterio propio</t>
-        </is>
       </c>
     </row>
     <row r="98">
@@ -6072,13 +6537,13 @@
       <c r="Z98">
         <v>45983.00077333635</v>
       </c>
-      <c r="AA98">
+      <c r="AD98" t="inlineStr">
+        <is>
+          <t>Criterio propio</t>
+        </is>
+      </c>
+      <c r="AE98">
         <v>38989.65948028438</v>
-      </c>
-      <c r="AE98" t="inlineStr">
-        <is>
-          <t>Criterio propio</t>
-        </is>
       </c>
     </row>
     <row r="99">
@@ -6170,13 +6635,13 @@
       <c r="Z99">
         <v>111265.4086487158</v>
       </c>
-      <c r="AA99">
+      <c r="AD99" t="inlineStr">
+        <is>
+          <t>Criterio propio</t>
+        </is>
+      </c>
+      <c r="AE99">
         <v>101918.1423645509</v>
-      </c>
-      <c r="AE99" t="inlineStr">
-        <is>
-          <t>Criterio propio</t>
-        </is>
       </c>
     </row>
     <row r="100">
@@ -6268,13 +6733,13 @@
       <c r="Z100">
         <v>69353.23187526224</v>
       </c>
-      <c r="AA100">
+      <c r="AD100" t="inlineStr">
+        <is>
+          <t>Criterio propio</t>
+        </is>
+      </c>
+      <c r="AE100">
         <v>60589.37213976433</v>
-      </c>
-      <c r="AE100" t="inlineStr">
-        <is>
-          <t>Criterio propio</t>
-        </is>
       </c>
     </row>
     <row r="101">
@@ -6366,13 +6831,13 @@
       <c r="Z101">
         <v>116554.4903711892</v>
       </c>
-      <c r="AA101">
+      <c r="AD101" t="inlineStr">
+        <is>
+          <t>Criterio propio</t>
+        </is>
+      </c>
+      <c r="AE101">
         <v>104583.8159958457</v>
-      </c>
-      <c r="AE101" t="inlineStr">
-        <is>
-          <t>Criterio propio</t>
-        </is>
       </c>
     </row>
     <row r="102">
@@ -6464,13 +6929,13 @@
       <c r="Z102">
         <v>163937.1434566131</v>
       </c>
-      <c r="AA102">
+      <c r="AD102" t="inlineStr">
+        <is>
+          <t>Criterio propio</t>
+        </is>
+      </c>
+      <c r="AE102">
         <v>148157.0130872179</v>
-      </c>
-      <c r="AE102" t="inlineStr">
-        <is>
-          <t>Criterio propio</t>
-        </is>
       </c>
     </row>
     <row r="103">
@@ -6562,13 +7027,13 @@
       <c r="Z103">
         <v>215249.1078825971</v>
       </c>
-      <c r="AA103">
+      <c r="AD103" t="inlineStr">
+        <is>
+          <t>Criterio propio</t>
+        </is>
+      </c>
+      <c r="AE103">
         <v>193146.4514183993</v>
-      </c>
-      <c r="AE103" t="inlineStr">
-        <is>
-          <t>Criterio propio</t>
-        </is>
       </c>
     </row>
     <row r="104">
@@ -6660,13 +7125,13 @@
       <c r="Z104">
         <v>217072.5122275666</v>
       </c>
-      <c r="AA104">
+      <c r="AD104" t="inlineStr">
+        <is>
+          <t>Criterio propio</t>
+        </is>
+      </c>
+      <c r="AE104">
         <v>184557.4251553834</v>
-      </c>
-      <c r="AE104" t="inlineStr">
-        <is>
-          <t>Criterio propio</t>
-        </is>
       </c>
     </row>
     <row r="105">
@@ -6758,13 +7223,13 @@
       <c r="Z105">
         <v>299553.0908134157</v>
       </c>
-      <c r="AA105">
+      <c r="AD105" t="inlineStr">
+        <is>
+          <t>Criterio propio</t>
+        </is>
+      </c>
+      <c r="AE105">
         <v>253751.5106362328</v>
-      </c>
-      <c r="AE105" t="inlineStr">
-        <is>
-          <t>Criterio propio</t>
-        </is>
       </c>
     </row>
     <row r="106">
@@ -6856,13 +7321,13 @@
       <c r="Z106">
         <v>186891.3702765133</v>
       </c>
-      <c r="AA106">
+      <c r="AD106" t="inlineStr">
+        <is>
+          <t>Criterio propio</t>
+        </is>
+      </c>
+      <c r="AE106">
         <v>125739.406024687</v>
-      </c>
-      <c r="AE106" t="inlineStr">
-        <is>
-          <t>Criterio propio</t>
-        </is>
       </c>
     </row>
     <row r="107">
@@ -6954,13 +7419,13 @@
       <c r="Z107">
         <v>135410.1687727924</v>
       </c>
-      <c r="AA107">
+      <c r="AD107" t="inlineStr">
+        <is>
+          <t>Criterio propio</t>
+        </is>
+      </c>
+      <c r="AE107">
         <v>39843.57684167949</v>
-      </c>
-      <c r="AE107" t="inlineStr">
-        <is>
-          <t>Criterio propio</t>
-        </is>
       </c>
     </row>
     <row r="108">
@@ -7052,13 +7517,13 @@
       <c r="Z108">
         <v>188864.2495191585</v>
       </c>
-      <c r="AA108">
+      <c r="AD108" t="inlineStr">
+        <is>
+          <t>Criterio propio</t>
+        </is>
+      </c>
+      <c r="AE108">
         <v>145751.0280959135</v>
-      </c>
-      <c r="AE108" t="inlineStr">
-        <is>
-          <t>Criterio propio</t>
-        </is>
       </c>
     </row>
     <row r="109">
@@ -7150,13 +7615,13 @@
       <c r="Z109">
         <v>456683.422488245</v>
       </c>
-      <c r="AA109">
+      <c r="AD109" t="inlineStr">
+        <is>
+          <t>Criterio propio</t>
+        </is>
+      </c>
+      <c r="AE109">
         <v>367947.6008901384</v>
-      </c>
-      <c r="AE109" t="inlineStr">
-        <is>
-          <t>Criterio propio</t>
-        </is>
       </c>
     </row>
     <row r="110">
@@ -7221,7 +7686,7 @@
       <c r="V110">
         <v>59451.14497418605</v>
       </c>
-      <c r="AE110" t="inlineStr">
+      <c r="AD110" t="inlineStr">
         <is>
           <t>Criterio propio</t>
         </is>
@@ -7281,7 +7746,7 @@
       <c r="V111">
         <v>42716.27350826657</v>
       </c>
-      <c r="AE111" t="inlineStr">
+      <c r="AD111" t="inlineStr">
         <is>
           <t>Criterio propio</t>
         </is>
@@ -7294,7 +7759,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7365,10 +7830,10 @@
         </is>
       </c>
       <c r="D2">
-        <v>225106.5102766767</v>
+        <v>8933</v>
       </c>
       <c r="E2">
-        <v>0.3042219454545471</v>
+        <v>0.1424151461062313</v>
       </c>
       <c r="F2">
         <v>0.135698927</v>
@@ -7380,10 +7845,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>30546.71190525949</v>
+        <v>1212.198514891</v>
       </c>
       <c r="J2">
-        <v>37935.62858559507</v>
+        <v>67270.14197596356</v>
       </c>
     </row>
     <row r="3">
@@ -7399,10 +7864,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>223668.8850836391</v>
+        <v>8772.395</v>
       </c>
       <c r="E3">
-        <v>0.3716392937395567</v>
+        <v>0.1389287236334287</v>
       </c>
       <c r="F3">
         <v>0.107747531</v>
@@ -7414,10 +7879,10 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>24099.77012928484</v>
+        <v>945.2039022067449</v>
       </c>
       <c r="J3">
-        <v>59024.37635471286</v>
+        <v>82178.94258179095</v>
       </c>
     </row>
     <row r="4">
@@ -7433,10 +7898,10 @@
         </is>
       </c>
       <c r="D4">
-        <v>437628.5273570395</v>
+        <v>17002.88</v>
       </c>
       <c r="E4">
-        <v>0.3614242328067346</v>
+        <v>0.05364852238416096</v>
       </c>
       <c r="F4">
         <v>0.117066142</v>
@@ -7448,10 +7913,10 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>51231.48332683006</v>
+        <v>1990.46156448896</v>
       </c>
       <c r="J4">
-        <v>106938.071427529</v>
+        <v>156179.0931898701</v>
       </c>
     </row>
     <row r="5">
@@ -7467,10 +7932,10 @@
         </is>
       </c>
       <c r="D5">
-        <v>494278.4119603414</v>
+        <v>13461.606</v>
       </c>
       <c r="E5">
-        <v>0.2302067558498727</v>
+        <v>0.06599915871787682</v>
       </c>
       <c r="F5">
         <v>0.114123054</v>
@@ -7482,18 +7947,18 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>56408.56189918429</v>
+        <v>1536.279588464724</v>
       </c>
       <c r="J5">
-        <v>57377.66780483281</v>
+        <v>112249.9501155524</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B6">
-        <v>0.04838182825389188</v>
+        <v>0.03843839330276964</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -7501,33 +7966,33 @@
         </is>
       </c>
       <c r="D6">
-        <v>629366.6051685548</v>
+        <v>18999.268</v>
       </c>
       <c r="E6">
-        <v>0.1039872251880539</v>
+        <v>0.04676257374713188</v>
       </c>
       <c r="F6">
-        <v>0.188701126</v>
+        <v>0.114123054</v>
       </c>
       <c r="G6">
-        <v>3166.401336164298</v>
+        <v>4373.759849802299</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>118762.1870621037</v>
+        <v>2168.254487924472</v>
       </c>
       <c r="J6">
-        <v>-53316.10016460021</v>
+        <v>111617.9752160926</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B7">
-        <v>0.05488572451056611</v>
+        <v>0.04838182825389188</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -7535,33 +8000,33 @@
         </is>
       </c>
       <c r="D7">
-        <v>524125.8862213257</v>
+        <v>31474.256</v>
       </c>
       <c r="E7">
-        <v>0.1961863645571697</v>
+        <v>0.3077842966895597</v>
       </c>
       <c r="F7">
-        <v>0.195745529</v>
+        <v>0.188701126</v>
       </c>
       <c r="G7">
-        <v>5643.698838620672</v>
+        <v>3166.401336164298</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>102595.2988609872</v>
+        <v>5939.227547212257</v>
       </c>
       <c r="J7">
-        <v>231.0533270794258</v>
+        <v>59506.85935029124</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="B8">
-        <v>0.05730932328517764</v>
+        <v>0.04838182825389188</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -7569,33 +8034,33 @@
         </is>
       </c>
       <c r="D8">
-        <v>528871.1375839805</v>
+        <v>30449.907</v>
       </c>
       <c r="E8">
-        <v>0.3587640043488117</v>
+        <v>0.3181383032397162</v>
       </c>
       <c r="F8">
-        <v>0.185661556</v>
+        <v>0.188701126</v>
       </c>
       <c r="G8">
-        <v>10873.86682251721</v>
+        <v>3166.401336164298</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>98191.03832733189</v>
+        <v>5745.931737495283</v>
       </c>
       <c r="J8">
-        <v>91548.88877680825</v>
+        <v>59700.15516000822</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="B9">
-        <v>0.06283489501643001</v>
+        <v>0.05488572451056611</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -7603,33 +8068,33 @@
         </is>
       </c>
       <c r="D9">
-        <v>562841.5228632515</v>
+        <v>32204.716</v>
       </c>
       <c r="E9">
-        <v>0.615897197791023</v>
+        <v>0.3227981599597024</v>
       </c>
       <c r="F9">
-        <v>0.181745386</v>
+        <v>0.195745529</v>
       </c>
       <c r="G9">
-        <v>21781.87449603073</v>
+        <v>5643.698838620672</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>102293.8498296095</v>
+        <v>6303.929169714764</v>
       </c>
       <c r="J9">
-        <v>244358.6669022991</v>
+        <v>96522.42301835187</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="B10">
-        <v>0.0696825181531</v>
+        <v>0.05488572451056611</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -7637,33 +8102,33 @@
         </is>
       </c>
       <c r="D10">
-        <v>562955.9757558049</v>
+        <v>28767.029</v>
       </c>
       <c r="E10">
-        <v>0.7897880044964051</v>
+        <v>0.3613728434321386</v>
       </c>
       <c r="F10">
-        <v>0.179536264</v>
+        <v>0.195745529</v>
       </c>
       <c r="G10">
-        <v>30981.95390010584</v>
+        <v>5643.698838620672</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>101071.0126836718</v>
+        <v>5631.017309363341</v>
       </c>
       <c r="J10">
-        <v>343544.864027832</v>
+        <v>97195.33487870329</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="B11">
-        <v>0.07879872942360158</v>
+        <v>0.05730932328517764</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -7671,33 +8136,33 @@
         </is>
       </c>
       <c r="D11">
-        <v>519933.5484174538</v>
+        <v>37553.692</v>
       </c>
       <c r="E11">
-        <v>0.9516612511392607</v>
+        <v>0.3667099078689901</v>
       </c>
       <c r="F11">
-        <v>0.177969154</v>
+        <v>0.185661556</v>
       </c>
       <c r="G11">
-        <v>38989.65948028438</v>
+        <v>10873.86682251721</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>92532.13374807229</v>
+        <v>6972.276890264753</v>
       </c>
       <c r="J11">
-        <v>402268.4774481572</v>
+        <v>182767.6502138754</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="B12">
-        <v>0.09663971229154263</v>
+        <v>0.05730932328517764</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -7705,33 +8170,33 @@
         </is>
       </c>
       <c r="D12">
-        <v>475373.9317994681</v>
+        <v>30309.247</v>
       </c>
       <c r="E12">
-        <v>2.218505493351129</v>
+        <v>0.4543600483859079</v>
       </c>
       <c r="F12">
-        <v>0.177329043</v>
+        <v>0.185661556</v>
       </c>
       <c r="G12">
-        <v>101918.1423645509</v>
+        <v>10873.86682251721</v>
       </c>
       <c r="H12">
-        <v>6686.514456747649</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>84297.60439314693</v>
+        <v>5627.261959208332</v>
       </c>
       <c r="J12">
-        <v>963635.5602431501</v>
+        <v>184112.6651449318</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="B13">
-        <v>0.1109890069686252</v>
+        <v>0.06283489501643001</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -7739,33 +8204,33 @@
         </is>
       </c>
       <c r="D13">
-        <v>444656.6497702878</v>
+        <v>36350.896</v>
       </c>
       <c r="E13">
-        <v>1.227698414243887</v>
+        <v>0.4338348255618792</v>
       </c>
       <c r="F13">
-        <v>0.168781923</v>
+        <v>0.181745386</v>
       </c>
       <c r="G13">
-        <v>60589.37213976433</v>
+        <v>21781.87449603073</v>
       </c>
       <c r="H13">
-        <v>22840.09983724428</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>75050.00442296668</v>
+        <v>6606.607624965856</v>
       </c>
       <c r="J13">
-        <v>448014.159545771</v>
+        <v>340045.9091069428</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>2010</v>
+        <v>2005</v>
       </c>
       <c r="B14">
-        <v>0.1396807365395046</v>
+        <v>0.06283489501643001</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -7773,33 +8238,33 @@
         </is>
       </c>
       <c r="D14">
-        <v>459505.0225973533</v>
+        <v>35366.088</v>
       </c>
       <c r="E14">
-        <v>1.629437492145172</v>
+        <v>0.4459154381219097</v>
       </c>
       <c r="F14">
-        <v>0.168907292</v>
+        <v>0.181745386</v>
       </c>
       <c r="G14">
-        <v>104583.8159958457</v>
+        <v>21781.87449603073</v>
       </c>
       <c r="H14">
-        <v>28406.20760098745</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>77613.74902731774</v>
+        <v>6427.623314869969</v>
       </c>
       <c r="J14">
-        <v>642714.755020837</v>
+        <v>340224.8934170386</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>2011</v>
+        <v>2006</v>
       </c>
       <c r="B15">
-        <v>0.172996874682735</v>
+        <v>0.0696825181531</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -7807,33 +8272,33 @@
         </is>
       </c>
       <c r="D15">
-        <v>477748.5151195527</v>
+        <v>47616.292</v>
       </c>
       <c r="E15">
-        <v>1.792605029549274</v>
+        <v>0.4682381840182754</v>
       </c>
       <c r="F15">
-        <v>0.165799322</v>
+        <v>0.179536264</v>
       </c>
       <c r="G15">
-        <v>148157.0130872179</v>
+        <v>30981.95390010584</v>
       </c>
       <c r="H15">
-        <v>31668.95361576589</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>79210.37989332859</v>
+        <v>8548.851171213088</v>
       </c>
       <c r="J15">
-        <v>745535.0575539129</v>
+        <v>436067.0255402907</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>2012</v>
+        <v>2006</v>
       </c>
       <c r="B16">
-        <v>0.2138958172700075</v>
+        <v>0.0696825181531</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -7841,33 +8306,33 @@
         </is>
       </c>
       <c r="D16">
-        <v>560380.2894784666</v>
+        <v>39228.19</v>
       </c>
       <c r="E16">
-        <v>1.611393435992753</v>
+        <v>0.5683608164374634</v>
       </c>
       <c r="F16">
-        <v>0.156365551</v>
+        <v>0.179536264</v>
       </c>
       <c r="G16">
-        <v>193146.4514183993</v>
+        <v>30981.95390010584</v>
       </c>
       <c r="H16">
-        <v>20304.75734662714</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>87624.17273383994</v>
+        <v>7042.88267608216</v>
       </c>
       <c r="J16">
-        <v>795064.1900448526</v>
+        <v>437572.9940354216</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>2013</v>
+        <v>2007</v>
       </c>
       <c r="B17">
-        <v>0.2693068600576771</v>
+        <v>0.07879872942360158</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -7875,33 +8340,33 @@
         </is>
       </c>
       <c r="D17">
-        <v>731548.3904041897</v>
+        <v>53803.856</v>
       </c>
       <c r="E17">
-        <v>0.9367874136742788</v>
+        <v>0.3700715542577938</v>
       </c>
       <c r="F17">
-        <v>0.153400732</v>
+        <v>0.177969154</v>
       </c>
       <c r="G17">
-        <v>184557.4251553834</v>
+        <v>38989.65948028438</v>
       </c>
       <c r="H17">
-        <v>43523.39928321803</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>112220.0585814245</v>
+        <v>9575.426734257824</v>
       </c>
       <c r="J17">
-        <v>529561.8667596799</v>
+        <v>485225.1844619716</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>2014</v>
+        <v>2007</v>
       </c>
       <c r="B18">
-        <v>0.384262651040995</v>
+        <v>0.07879872942360158</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -7909,33 +8374,33 @@
         </is>
       </c>
       <c r="D18">
-        <v>730398.8541162105</v>
+        <v>40970.103</v>
       </c>
       <c r="E18">
-        <v>0.904108138300938</v>
+        <v>0.4859952784346802</v>
       </c>
       <c r="F18">
-        <v>0.158603639</v>
+        <v>0.177969154</v>
       </c>
       <c r="G18">
-        <v>253751.5106362328</v>
+        <v>38989.65948028438</v>
       </c>
       <c r="H18">
-        <v>47207.29103090671</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>115843.9161842611</v>
+        <v>7291.414570202861</v>
       </c>
       <c r="J18">
-        <v>497308.3409969776</v>
+        <v>487509.1966260266</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>2015</v>
+        <v>2008</v>
       </c>
       <c r="B19">
-        <v>0.4863540617691473</v>
+        <v>0.09663971229154263</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -7943,33 +8408,33 @@
         </is>
       </c>
       <c r="D19">
-        <v>861077.6076931011</v>
+        <v>63362.18</v>
       </c>
       <c r="E19">
-        <v>0.3002455377884004</v>
+        <v>0.3366897141885904</v>
       </c>
       <c r="F19">
-        <v>0.152714321</v>
+        <v>0.177329043</v>
       </c>
       <c r="G19">
-        <v>125739.406024687</v>
+        <v>101918.1423645509</v>
       </c>
       <c r="H19">
-        <v>57430.71189412219</v>
+        <v>6686.514456747649</v>
       </c>
       <c r="I19">
-        <v>131498.8821871563</v>
+        <v>11235.95474179374</v>
       </c>
       <c r="J19">
-        <v>69605.11531808585</v>
+        <v>1036697.209894503</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>2016</v>
+        <v>2008</v>
       </c>
       <c r="B20">
-        <v>0.6757814893778542</v>
+        <v>0.09663971229154263</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -7977,33 +8442,33 @@
         </is>
       </c>
       <c r="D20">
-        <v>1017437.292686123</v>
+        <v>45940</v>
       </c>
       <c r="E20">
-        <v>0.05794879043360126</v>
+        <v>0.4643751474655206</v>
       </c>
       <c r="F20">
-        <v>0.157300074</v>
+        <v>0.177329043</v>
       </c>
       <c r="G20">
-        <v>39843.57684167949</v>
+        <v>101918.1423645509</v>
       </c>
       <c r="H20">
-        <v>17493.75669023072</v>
+        <v>6686.514456747649</v>
       </c>
       <c r="I20">
-        <v>160042.9614298868</v>
+        <v>8146.49623542</v>
       </c>
       <c r="J20">
-        <v>-118577.4576669188</v>
+        <v>1039786.668400877</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>2017</v>
+        <v>2009</v>
       </c>
       <c r="B21">
-        <v>0.834016110429706</v>
+        <v>0.1109890069686252</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -8011,33 +8476,33 @@
         </is>
       </c>
       <c r="D21">
-        <v>320019.1634937194</v>
+        <v>66063.712</v>
       </c>
       <c r="E21">
-        <v>0.546086199512246</v>
+        <v>0.3821563116694461</v>
       </c>
       <c r="F21">
-        <v>0.157291505</v>
+        <v>0.168781923</v>
       </c>
       <c r="G21">
-        <v>145751.0280959135</v>
+        <v>60589.37213976433</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>22840.09983724428</v>
       </c>
       <c r="I21">
-        <v>50336.29585476818</v>
+        <v>11150.36035187818</v>
       </c>
       <c r="J21">
-        <v>124421.7529086051</v>
+        <v>511913.8036168595</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>2018</v>
+        <v>2009</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>0.1109890069686252</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -8045,54 +8510,501 @@
         </is>
       </c>
       <c r="D22">
-        <v>542750.893</v>
+        <v>49352</v>
       </c>
       <c r="E22">
-        <v>0.6779308991208576</v>
+        <v>0.5115631486690008</v>
       </c>
       <c r="F22">
-        <v>0.157437741</v>
+        <v>0.168781923</v>
       </c>
       <c r="G22">
-        <v>367947.6008901384</v>
+        <v>60589.37213976433</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>22840.09983724428</v>
       </c>
       <c r="I22">
-        <v>85449.47451965272</v>
+        <v>8329.725463896</v>
       </c>
       <c r="J22">
-        <v>282498.1263704857</v>
+        <v>514734.4385048416</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>2019</v>
+        <v>2010</v>
+      </c>
+      <c r="B23">
+        <v>0.1396807365395046</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
           <t>Millones de pesos de 2018</t>
         </is>
       </c>
+      <c r="D23">
+        <v>69746.957</v>
+      </c>
+      <c r="E23">
+        <v>0.4208701959517474</v>
+      </c>
       <c r="F23">
-        <v>0.173618211</v>
+        <v>0.168907292</v>
+      </c>
+      <c r="G23">
+        <v>104583.8159958457</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>28406.20760098745</v>
+      </c>
+      <c r="I23">
+        <v>11780.76963211044</v>
+      </c>
+      <c r="J23">
+        <v>708547.7344160442</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>2020</v>
+        <v>2010</v>
+      </c>
+      <c r="B24">
+        <v>0.1396807365395046</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
           <t>Millones de pesos de 2018</t>
         </is>
       </c>
+      <c r="D24">
+        <v>64184</v>
+      </c>
+      <c r="E24">
+        <v>0.4573478664406721</v>
+      </c>
       <c r="F24">
-        <v>0.157970348</v>
+        <v>0.168907292</v>
+      </c>
+      <c r="G24">
+        <v>104583.8159958457</v>
+      </c>
+      <c r="H24">
+        <v>28406.20760098745</v>
+      </c>
+      <c r="I24">
+        <v>10841.145629728</v>
+      </c>
+      <c r="J24">
+        <v>709487.3584184267</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>2011</v>
+      </c>
+      <c r="B25">
+        <v>0.172996874682735</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Millones de pesos de 2018</t>
+        </is>
+      </c>
+      <c r="D25">
+        <v>77290.515</v>
+      </c>
+      <c r="E25">
+        <v>0.3871542202100562</v>
+      </c>
+      <c r="F25">
+        <v>0.165799322</v>
+      </c>
+      <c r="G25">
+        <v>148157.0130872179</v>
+      </c>
+      <c r="H25">
+        <v>31668.95361576589</v>
+      </c>
+      <c r="I25">
+        <v>12814.71498403083</v>
+      </c>
+      <c r="J25">
+        <v>811930.7224632106</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>2011</v>
+      </c>
+      <c r="B26">
+        <v>0.172996874682735</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Millones de pesos de 2018</t>
+        </is>
+      </c>
+      <c r="D26">
+        <v>82649</v>
+      </c>
+      <c r="E26">
+        <v>0.3620533710566208</v>
+      </c>
+      <c r="F26">
+        <v>0.165799322</v>
+      </c>
+      <c r="G26">
+        <v>148157.0130872179</v>
+      </c>
+      <c r="H26">
+        <v>31668.95361576589</v>
+      </c>
+      <c r="I26">
+        <v>13703.148163978</v>
+      </c>
+      <c r="J26">
+        <v>811042.2892832634</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>2012</v>
+      </c>
+      <c r="B27">
+        <v>0.2138958172700075</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Millones de pesos de 2018</t>
+        </is>
+      </c>
+      <c r="D27">
+        <v>99397</v>
+      </c>
+      <c r="E27">
+        <v>0.3227007369073044</v>
+      </c>
+      <c r="F27">
+        <v>0.156365551</v>
+      </c>
+      <c r="G27">
+        <v>193146.4514183993</v>
+      </c>
+      <c r="H27">
+        <v>20304.75734662714</v>
+      </c>
+      <c r="I27">
+        <v>15542.266672747</v>
+      </c>
+      <c r="J27">
+        <v>867146.0961059455</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>2012</v>
+      </c>
+      <c r="B28">
+        <v>0.2138958172700075</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Millones de pesos de 2018</t>
+        </is>
+      </c>
+      <c r="D28">
+        <v>119863</v>
+      </c>
+      <c r="E28">
+        <v>0.2676012209470424</v>
+      </c>
+      <c r="F28">
+        <v>0.156365551</v>
+      </c>
+      <c r="G28">
+        <v>193146.4514183993</v>
+      </c>
+      <c r="H28">
+        <v>20304.75734662714</v>
+      </c>
+      <c r="I28">
+        <v>18742.444039513</v>
+      </c>
+      <c r="J28">
+        <v>863945.9187391795</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>2013</v>
+      </c>
+      <c r="B29">
+        <v>0.2693068600576771</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Millones de pesos de 2018</t>
+        </is>
+      </c>
+      <c r="D29">
+        <v>132729</v>
+      </c>
+      <c r="E29">
+        <v>0.2296933122516557</v>
+      </c>
+      <c r="F29">
+        <v>0.153400732</v>
+      </c>
+      <c r="G29">
+        <v>184557.4251553834</v>
+      </c>
+      <c r="H29">
+        <v>43523.39928321803</v>
+      </c>
+      <c r="I29">
+        <v>20360.725757628</v>
+      </c>
+      <c r="J29">
+        <v>621421.1995834764</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>2013</v>
+      </c>
+      <c r="B30">
+        <v>0.2693068600576771</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Millones de pesos de 2018</t>
+        </is>
+      </c>
+      <c r="D30">
+        <v>197011</v>
+      </c>
+      <c r="E30">
+        <v>0.1547475198940668</v>
+      </c>
+      <c r="F30">
+        <v>0.153400732</v>
+      </c>
+      <c r="G30">
+        <v>184557.4251553834</v>
+      </c>
+      <c r="H30">
+        <v>43523.39928321803</v>
+      </c>
+      <c r="I30">
+        <v>30221.63161205201</v>
+      </c>
+      <c r="J30">
+        <v>611560.2937290524</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>2014</v>
+      </c>
+      <c r="B31">
+        <v>0.384262651040995</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Millones de pesos de 2018</t>
+        </is>
+      </c>
+      <c r="D31">
+        <v>164527.25</v>
+      </c>
+      <c r="E31">
+        <v>0.43043784624782</v>
+      </c>
+      <c r="F31">
+        <v>0.158603639</v>
+      </c>
+      <c r="G31">
+        <v>253751.5106362328</v>
+      </c>
+      <c r="H31">
+        <v>47207.29103090671</v>
+      </c>
+      <c r="I31">
+        <v>26094.62056466275</v>
+      </c>
+      <c r="J31">
+        <v>587057.636616576</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>2014</v>
+      </c>
+      <c r="B32">
+        <v>0.384262651040995</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Millones de pesos de 2018</t>
+        </is>
+      </c>
+      <c r="D32">
+        <v>280665</v>
+      </c>
+      <c r="E32">
+        <v>0.2523248539685271</v>
+      </c>
+      <c r="F32">
+        <v>0.158603639</v>
+      </c>
+      <c r="G32">
+        <v>253751.5106362328</v>
+      </c>
+      <c r="H32">
+        <v>47207.29103090671</v>
+      </c>
+      <c r="I32">
+        <v>44514.490339935</v>
+      </c>
+      <c r="J32">
+        <v>568637.7668413037</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>2015</v>
+      </c>
+      <c r="B33">
+        <v>0.4863540617691473</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Millones de pesos de 2018</t>
+        </is>
+      </c>
+      <c r="D33">
+        <v>418788.592</v>
+      </c>
+      <c r="E33">
+        <v>0.1466730529898736</v>
+      </c>
+      <c r="F33">
+        <v>0.152714321</v>
+      </c>
+      <c r="G33">
+        <v>125739.406024687</v>
+      </c>
+      <c r="H33">
+        <v>57430.71189412219</v>
+      </c>
+      <c r="I33">
+        <v>63955.01546982603</v>
+      </c>
+      <c r="J33">
+        <v>137148.9820354161</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>2016</v>
+      </c>
+      <c r="B34">
+        <v>0.6757814893778542</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Millones de pesos de 2018</t>
+        </is>
+      </c>
+      <c r="D34">
+        <v>687565.289</v>
+      </c>
+      <c r="E34">
+        <v>0.1107052261401072</v>
+      </c>
+      <c r="F34">
+        <v>0.157300074</v>
+      </c>
+      <c r="G34">
+        <v>39843.57684167949</v>
+      </c>
+      <c r="H34">
+        <v>17493.75669023072</v>
+      </c>
+      <c r="I34">
+        <v>108154.0708395314</v>
+      </c>
+      <c r="J34">
+        <v>-66688.56707656334</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>2017</v>
+      </c>
+      <c r="B35">
+        <v>0.834016110429706</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Millones de pesos de 2018</t>
+        </is>
+      </c>
+      <c r="D35">
+        <v>266901.138</v>
+      </c>
+      <c r="E35">
+        <v>0.583236559807094</v>
+      </c>
+      <c r="F35">
+        <v>0.157291505</v>
+      </c>
+      <c r="G35">
+        <v>145751.0280959135</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>41981.28168223269</v>
+      </c>
+      <c r="J35">
+        <v>132776.7670811406</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>2018</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Millones de pesos de 2018</t>
+        </is>
+      </c>
+      <c r="D36">
+        <v>542750.893</v>
+      </c>
+      <c r="E36">
+        <v>0.5438125371795649</v>
+      </c>
+      <c r="F36">
+        <v>0.157437741</v>
+      </c>
+      <c r="G36">
+        <v>367947.6008901384</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>85449.47451965272</v>
+      </c>
+      <c r="J36">
+        <v>282498.1263704857</v>
       </c>
     </row>
   </sheetData>
